--- a/3_Component_Results/PUBCON/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/PUBCON/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Q0</t>
   </si>
@@ -26,18 +26,6 @@
   </si>
   <si>
     <t>Q3</t>
-  </si>
-  <si>
-    <t>Q4</t>
-  </si>
-  <si>
-    <t>Q5</t>
-  </si>
-  <si>
-    <t>Q6</t>
-  </si>
-  <si>
-    <t>Q7</t>
   </si>
   <si>
     <t>2022-01-01 00:00:00_diff</t>
@@ -440,13 +428,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -459,308 +447,176 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B2">
+        <v>0.6357073266642669</v>
+      </c>
+      <c r="C2">
+        <v>-1.961395290704239</v>
+      </c>
+      <c r="D2">
+        <v>0.5061066349364648</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="B3">
+        <v>-1.852234687859112</v>
+      </c>
+      <c r="C3">
+        <v>0.4609433050033554</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B4">
+        <v>0.1679046591645399</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
+      <c r="B5">
+        <v>0.5900052187212863</v>
+      </c>
+      <c r="C5">
+        <v>5.213168345810912</v>
+      </c>
+      <c r="D5">
+        <v>0.3336915807440872</v>
+      </c>
+      <c r="E5">
+        <v>0.2804781972663747</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2">
-        <v>-0.1383416275122965</v>
-      </c>
-      <c r="C2">
-        <v>-0.3525627563686093</v>
-      </c>
-      <c r="D2">
-        <v>1.385920819322932</v>
-      </c>
-      <c r="E2">
-        <v>0.8887304467538183</v>
-      </c>
-      <c r="F2">
-        <v>-2.406681817140355</v>
-      </c>
-      <c r="G2">
-        <v>0.3941526862001591</v>
-      </c>
-      <c r="H2">
-        <v>0.1947565464392823</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1" t="s">
+      <c r="B6">
+        <v>5.752603656669557</v>
+      </c>
+      <c r="C6">
+        <v>0.2775100604415552</v>
+      </c>
+      <c r="D6">
+        <v>0.233276302196347</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3">
-        <v>-0.3328695396365188</v>
-      </c>
-      <c r="C3">
-        <v>1.414320955887267</v>
-      </c>
-      <c r="D3">
-        <v>0.9029065645805099</v>
-      </c>
-      <c r="E3">
-        <v>-2.392532849034125</v>
-      </c>
-      <c r="F3">
-        <v>0.4065345851949104</v>
-      </c>
-      <c r="G3">
-        <v>0.2069914910198702</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1" t="s">
+      <c r="B7">
+        <v>-0.9865920538638637</v>
+      </c>
+      <c r="C7">
+        <v>0.8147367340369336</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4">
-        <v>1.452410828747851</v>
-      </c>
-      <c r="C4">
-        <v>0.9458565130046671</v>
-      </c>
-      <c r="D4">
-        <v>-2.37615318585058</v>
-      </c>
-      <c r="E4">
-        <v>0.4211629919120637</v>
-      </c>
-      <c r="F4">
-        <v>0.2190042333519039</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1" t="s">
+      <c r="B8">
+        <v>0.2892578455620416</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5">
-        <v>0.912560626620353</v>
-      </c>
-      <c r="C5">
-        <v>-2.479954617610736</v>
-      </c>
-      <c r="D5">
-        <v>0.3912288228421609</v>
-      </c>
-      <c r="E5">
-        <v>0.1862240109259867</v>
-      </c>
-      <c r="F5">
-        <v>0.4898129748817928</v>
-      </c>
-      <c r="G5">
-        <v>0.1895436066297303</v>
-      </c>
-      <c r="H5">
-        <v>0.2897246465179471</v>
-      </c>
-      <c r="I5">
-        <v>0.2897102124182701</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1" t="s">
+      <c r="B9">
+        <v>0.1113804397828636</v>
+      </c>
+      <c r="C9">
+        <v>0.8047972717524667</v>
+      </c>
+      <c r="D9">
+        <v>-0.6308767259864405</v>
+      </c>
+      <c r="E9">
+        <v>-0.03885449192332174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6">
-        <v>-2.584355697743081</v>
-      </c>
-      <c r="C6">
-        <v>0.3511344564027883</v>
-      </c>
-      <c r="D6">
-        <v>0.1681806545097252</v>
-      </c>
-      <c r="E6">
-        <v>0.4696953532746296</v>
-      </c>
-      <c r="F6">
-        <v>0.1697605629316567</v>
-      </c>
-      <c r="G6">
-        <v>0.2697525493380166</v>
-      </c>
-      <c r="H6">
-        <v>0.2697500508832025</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1" t="s">
+      <c r="B10">
+        <v>1.036571728033885</v>
+      </c>
+      <c r="C10">
+        <v>-0.6467205717785247</v>
+      </c>
+      <c r="D10">
+        <v>-0.01343564570878031</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7">
-        <v>0.8301991077514008</v>
-      </c>
-      <c r="C7">
-        <v>-1.109965707790516</v>
-      </c>
-      <c r="D7">
-        <v>0.3202984374476666</v>
-      </c>
-      <c r="E7">
-        <v>0.9350528835401413</v>
-      </c>
-      <c r="F7">
-        <v>0.3891407823744225</v>
-      </c>
-      <c r="G7">
-        <v>-0.09009413867917027</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1" t="s">
+      <c r="B11">
+        <v>-0.4473908126189329</v>
+      </c>
+      <c r="C11">
+        <v>-0.047000058385194</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8">
-        <v>-0.8303000602653126</v>
-      </c>
-      <c r="C8">
-        <v>0.875687326297436</v>
-      </c>
-      <c r="D8">
-        <v>0.6146297118950579</v>
-      </c>
-      <c r="E8">
-        <v>0.05839914435954358</v>
-      </c>
-      <c r="F8">
-        <v>0.1580880179001979</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1" t="s">
+      <c r="B12">
+        <v>0.08766415230619662</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B9">
-        <v>0.687104854720578</v>
-      </c>
-      <c r="C9">
-        <v>0.2536567958820752</v>
-      </c>
-      <c r="D9">
-        <v>0.2612184878417174</v>
-      </c>
-      <c r="E9">
-        <v>0.3190975378379971</v>
-      </c>
-      <c r="F9">
-        <v>0.4362836697247521</v>
-      </c>
-      <c r="G9">
-        <v>-0.08451568406763438</v>
-      </c>
-      <c r="H9">
-        <v>0.01417523807612581</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1" t="s">
+      <c r="B13">
+        <v>0.1821546639247856</v>
+      </c>
+      <c r="C13">
+        <v>0.7868436123708645</v>
+      </c>
+      <c r="D13">
+        <v>-0.3432854071619239</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10">
-        <v>0.3692384310910841</v>
-      </c>
-      <c r="C10">
-        <v>0.4315347339533552</v>
-      </c>
-      <c r="D10">
-        <v>0.2477618035463992</v>
-      </c>
-      <c r="E10">
-        <v>0.3923356153120028</v>
-      </c>
-      <c r="F10">
-        <v>-0.0634996890648819</v>
-      </c>
-      <c r="G10">
-        <v>0.01566812815892149</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="s">
+      <c r="B14">
+        <v>1.011343670274343</v>
+      </c>
+      <c r="C14">
+        <v>-0.3056914103620627</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B11">
-        <v>0.4969365066239546</v>
-      </c>
-      <c r="C11">
-        <v>0.3417417096897825</v>
-      </c>
-      <c r="D11">
-        <v>0.3548334318012728</v>
-      </c>
-      <c r="E11">
-        <v>-0.08549712736809256</v>
-      </c>
-      <c r="F11">
-        <v>0.02905946570472323</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="s">
+      <c r="B15">
+        <v>-0.2334317162869594</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B12">
-        <v>0.4153374391983131</v>
-      </c>
-      <c r="C12">
-        <v>0.473444131739432</v>
-      </c>
-      <c r="D12">
-        <v>-0.1313097372976092</v>
-      </c>
-      <c r="E12">
-        <v>-0.002695278141589597</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13">
-        <v>0.5376287008443567</v>
-      </c>
-      <c r="C13">
-        <v>-0.03160334409479437</v>
-      </c>
-      <c r="D13">
-        <v>-0.03667885632189949</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14">
-        <v>0.03474005736204755</v>
-      </c>
-      <c r="C14">
-        <v>0.0819467627449324</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15">
-        <v>0.08627460963864103</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/PUBCON/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/PUBCON/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
@@ -453,13 +453,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.6357073266642669</v>
+        <v>0.2041586444627012</v>
       </c>
       <c r="C2">
-        <v>-1.961395290704239</v>
+        <v>-0.317315650508697</v>
       </c>
       <c r="D2">
-        <v>0.5061066349364648</v>
+        <v>1.506101047285106</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -467,10 +467,10 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>-1.852234687859112</v>
+        <v>-0.20815504766357</v>
       </c>
       <c r="C3">
-        <v>0.4609433050033554</v>
+        <v>1.460937717351997</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -478,7 +478,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.1679046591645399</v>
+        <v>1.167899071513181</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -486,16 +486,16 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.5900052187212863</v>
+        <v>1.713367536971843</v>
       </c>
       <c r="C5">
-        <v>5.213168345810912</v>
+        <v>-2.474187431820313</v>
       </c>
       <c r="D5">
-        <v>0.3336915807440872</v>
+        <v>0.4111563609322812</v>
       </c>
       <c r="E5">
-        <v>0.2804781972663747</v>
+        <v>0.3036778841160683</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -503,13 +503,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>5.752603656669557</v>
+        <v>-1.934752120961668</v>
       </c>
       <c r="C6">
-        <v>0.2775100604415552</v>
+        <v>0.3549748406297492</v>
       </c>
       <c r="D6">
-        <v>0.233276302196347</v>
+        <v>0.2564759890460406</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -517,10 +517,10 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>-0.9865920538638637</v>
+        <v>-0.9091272736756697</v>
       </c>
       <c r="C7">
-        <v>0.8147367340369336</v>
+        <v>0.8379364208866271</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -528,7 +528,7 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.2892578455620416</v>
+        <v>0.3124575324117352</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -536,16 +536,16 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>0.1113804397828636</v>
+        <v>0.5586933435139947</v>
       </c>
       <c r="C9">
-        <v>0.8047972717524667</v>
+        <v>0.1779189921522184</v>
       </c>
       <c r="D9">
-        <v>-0.6308767259864405</v>
+        <v>0.3037985701168242</v>
       </c>
       <c r="E9">
-        <v>-0.03885449192332174</v>
+        <v>0.295512446150037</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -553,13 +553,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>1.036571728033885</v>
+        <v>0.4096934484336369</v>
       </c>
       <c r="C10">
-        <v>-0.6467205717785247</v>
+        <v>0.28795472432474</v>
       </c>
       <c r="D10">
-        <v>-0.01343564570878031</v>
+        <v>0.3209312923645784</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -567,10 +567,10 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>-0.4473908126189329</v>
+        <v>0.4872844834843318</v>
       </c>
       <c r="C11">
-        <v>-0.047000058385194</v>
+        <v>0.2873668796881647</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -578,7 +578,7 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>0.08766415230619662</v>
+        <v>0.4220310903795553</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -586,13 +586,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>0.1821546639247856</v>
+        <v>0.5981638006715656</v>
       </c>
       <c r="C13">
-        <v>0.7868436123708645</v>
+        <v>-0.05550181425120998</v>
       </c>
       <c r="D13">
-        <v>-0.3432854071619239</v>
+        <v>0.04865461862192938</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -600,10 +600,10 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>1.011343670274343</v>
+        <v>0.168998243652269</v>
       </c>
       <c r="C14">
-        <v>-0.3056914103620627</v>
+        <v>0.08624861542179052</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -611,7 +611,7 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>-0.2334317162869594</v>
+        <v>0.1585083094968939</v>
       </c>
     </row>
     <row r="16" spans="1:5">

--- a/3_Component_Results/PUBCON/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/PUBCON/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>Q0</t>
   </si>
@@ -26,6 +26,120 @@
   </si>
   <si>
     <t>Q3</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>Q5</t>
+  </si>
+  <si>
+    <t>Q6</t>
+  </si>
+  <si>
+    <t>Q7</t>
+  </si>
+  <si>
+    <t>Q8</t>
+  </si>
+  <si>
+    <t>Q9</t>
+  </si>
+  <si>
+    <t>2010-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2010-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2011-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2011-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2012-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2012-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2013-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2013-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2014-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2014-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2015-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2015-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2016-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2016-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2017-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2017-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-10-01 00:00:00_diff</t>
   </si>
   <si>
     <t>2022-01-01 00:00:00_diff</t>
@@ -428,13 +542,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -447,176 +561,1503 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2">
+        <v>-0.7299714605292147</v>
+      </c>
+      <c r="C2">
+        <v>0.6020769072469407</v>
+      </c>
+      <c r="D2">
+        <v>-0.8432842366895161</v>
+      </c>
+      <c r="E2">
+        <v>-0.1497591440111091</v>
+      </c>
+      <c r="F2">
+        <v>-0.1109590413533403</v>
+      </c>
+      <c r="G2">
+        <v>-0.1364478911566862</v>
+      </c>
+      <c r="H2">
+        <v>0.2476178856005476</v>
+      </c>
+      <c r="I2">
+        <v>0.6905825178015028</v>
+      </c>
+      <c r="J2">
+        <v>0.06919268764780939</v>
+      </c>
+      <c r="K2">
+        <v>0.3010979052072587</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>-1.333078207328023</v>
+      </c>
+      <c r="C3">
+        <v>0.09184466503372024</v>
+      </c>
+      <c r="D3">
+        <v>-0.306859868998886</v>
+      </c>
+      <c r="E3">
+        <v>-0.06693684717107451</v>
+      </c>
+      <c r="F3">
+        <v>0.156284367882971</v>
+      </c>
+      <c r="G3">
+        <v>0.696702558568135</v>
+      </c>
+      <c r="H3">
+        <v>0.01628109099013825</v>
+      </c>
+      <c r="I3">
+        <v>0.2839455827809619</v>
+      </c>
+      <c r="J3">
+        <v>0.5446839512515818</v>
+      </c>
+      <c r="K3">
+        <v>0.6295519595250804</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>-0.533697988844363</v>
+      </c>
+      <c r="C4">
+        <v>0.05561554472104191</v>
+      </c>
+      <c r="D4">
+        <v>0.1032623172537674</v>
+      </c>
+      <c r="E4">
+        <v>0.7247498833030506</v>
+      </c>
+      <c r="F4">
+        <v>0.007936245011672893</v>
+      </c>
+      <c r="G4">
+        <v>0.2907568866543998</v>
+      </c>
+      <c r="H4">
+        <v>0.5459782323872212</v>
+      </c>
+      <c r="I4">
+        <v>0.6322308004276898</v>
+      </c>
+      <c r="J4">
+        <v>-0.04160664058340119</v>
+      </c>
+      <c r="K4">
+        <v>0.7603831855345194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>0.2050539388642833</v>
+      </c>
+      <c r="C5">
+        <v>0.6720530324722289</v>
+      </c>
+      <c r="D5">
+        <v>0.04185700963282135</v>
+      </c>
+      <c r="E5">
+        <v>0.2759723189514006</v>
+      </c>
+      <c r="F5">
+        <v>0.5577304195210081</v>
+      </c>
+      <c r="G5">
+        <v>0.6296516955940709</v>
+      </c>
+      <c r="H5">
+        <v>-0.03649163957817403</v>
+      </c>
+      <c r="I5">
+        <v>0.7613787284005606</v>
+      </c>
+      <c r="J5">
+        <v>-0.008831773078742</v>
+      </c>
+      <c r="K5">
+        <v>-0.0294015880027757</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>0.0743859739021604</v>
+      </c>
+      <c r="C6">
+        <v>0.2484916085038219</v>
+      </c>
+      <c r="D6">
+        <v>0.5486540894620314</v>
+      </c>
+      <c r="E6">
+        <v>0.6154894829517112</v>
+      </c>
+      <c r="F6">
+        <v>-0.04919805406892691</v>
+      </c>
+      <c r="G6">
+        <v>0.7482606346403224</v>
+      </c>
+      <c r="H6">
+        <v>-0.0218329612096812</v>
+      </c>
+      <c r="I6">
+        <v>-0.0424359268309617</v>
+      </c>
+      <c r="J6">
+        <v>-0.2335646618814427</v>
+      </c>
+      <c r="K6">
+        <v>0.0775971426340063</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>0.5177516528570107</v>
+      </c>
+      <c r="C7">
+        <v>0.5989516084989068</v>
+      </c>
+      <c r="D7">
+        <v>-0.07006566944191212</v>
+      </c>
+      <c r="E7">
+        <v>0.7288733088518888</v>
+      </c>
+      <c r="F7">
+        <v>-0.04172429358092405</v>
+      </c>
+      <c r="G7">
+        <v>-0.06215352623373543</v>
+      </c>
+      <c r="H7">
+        <v>-0.253342672854984</v>
+      </c>
+      <c r="I7">
+        <v>0.05784029933694401</v>
+      </c>
+      <c r="J7">
+        <v>-0.2948612226802226</v>
+      </c>
+      <c r="K7">
+        <v>-0.2761591929195323</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>0.08490989780834196</v>
+      </c>
+      <c r="C8">
+        <v>0.6579669891655838</v>
+      </c>
+      <c r="D8">
+        <v>-0.0337082983877815</v>
+      </c>
+      <c r="E8">
+        <v>-0.08162513797933685</v>
+      </c>
+      <c r="F8">
+        <v>-0.2632388740485452</v>
+      </c>
+      <c r="G8">
+        <v>0.0446084759661744</v>
+      </c>
+      <c r="H8">
+        <v>-0.3069310617542014</v>
+      </c>
+      <c r="I8">
+        <v>-0.2886338198710314</v>
+      </c>
+      <c r="J8">
+        <v>-0.8837388304437008</v>
+      </c>
+      <c r="K8">
+        <v>-0.5012736310185596</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>-0.1274421547923803</v>
+      </c>
+      <c r="C9">
+        <v>-0.0770486014252677</v>
+      </c>
+      <c r="D9">
+        <v>-0.2951631847585366</v>
+      </c>
+      <c r="E9">
+        <v>0.026696954355518</v>
+      </c>
+      <c r="F9">
+        <v>-0.3301959439094672</v>
+      </c>
+      <c r="G9">
+        <v>-0.3098446463821599</v>
+      </c>
+      <c r="H9">
+        <v>-0.9057392665350327</v>
+      </c>
+      <c r="I9">
+        <v>-0.5229698416775298</v>
+      </c>
+      <c r="J9">
+        <v>-0.1196902131488114</v>
+      </c>
+      <c r="K9">
+        <v>-0.8022999476913057</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>-0.3701926332794469</v>
+      </c>
+      <c r="C10">
+        <v>0.03216762876881063</v>
+      </c>
+      <c r="D10">
+        <v>-0.3561587475713705</v>
+      </c>
+      <c r="E10">
+        <v>-0.3218053907032016</v>
+      </c>
+      <c r="F10">
+        <v>-0.9236653191363067</v>
+      </c>
+      <c r="G10">
+        <v>-0.5383207944107506</v>
+      </c>
+      <c r="H10">
+        <v>-0.1361469770182494</v>
+      </c>
+      <c r="I10">
+        <v>-0.8182814695954748</v>
+      </c>
+      <c r="J10">
+        <v>-0.6260012620670329</v>
+      </c>
+      <c r="K10">
+        <v>0.0654350022195696</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>-0.4004728873514054</v>
+      </c>
+      <c r="C11">
+        <v>-0.256593117089281</v>
+      </c>
+      <c r="D11">
+        <v>-0.9101840512797599</v>
+      </c>
+      <c r="E11">
+        <v>-0.5025923029955829</v>
+      </c>
+      <c r="F11">
+        <v>-0.1102192146290291</v>
+      </c>
+      <c r="G11">
+        <v>-0.7880640150092376</v>
+      </c>
+      <c r="H11">
+        <v>-0.597664389751444</v>
+      </c>
+      <c r="I11">
+        <v>0.09459588394845259</v>
+      </c>
+      <c r="J11">
+        <v>-0.05670146612383903</v>
+      </c>
+      <c r="K11">
+        <v>0.1944604638394308</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>-0.9849032593006282</v>
+      </c>
+      <c r="C12">
+        <v>-0.4590385042713793</v>
+      </c>
+      <c r="D12">
+        <v>-0.1167798226740139</v>
+      </c>
+      <c r="E12">
+        <v>-0.7745358769178239</v>
+      </c>
+      <c r="F12">
+        <v>-0.5922783908144118</v>
+      </c>
+      <c r="G12">
+        <v>0.1032687034279631</v>
+      </c>
+      <c r="H12">
+        <v>-0.04935447506283103</v>
+      </c>
+      <c r="I12">
+        <v>0.202341374793338</v>
+      </c>
+      <c r="J12">
+        <v>0.4056038767674951</v>
+      </c>
+      <c r="K12">
+        <v>-0.1298858332140357</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>-0.308527418212264</v>
+      </c>
+      <c r="C13">
+        <v>-0.6267773589603296</v>
+      </c>
+      <c r="D13">
+        <v>-0.6144529728654671</v>
+      </c>
+      <c r="E13">
+        <v>0.1543725298048982</v>
+      </c>
+      <c r="F13">
+        <v>-0.03138556607043652</v>
+      </c>
+      <c r="G13">
+        <v>0.2350511631648266</v>
+      </c>
+      <c r="H13">
+        <v>0.4317234200289905</v>
+      </c>
+      <c r="I13">
+        <v>-0.1008259529510956</v>
+      </c>
+      <c r="J13">
+        <v>0.922140718314054</v>
+      </c>
+      <c r="K13">
+        <v>-0.1867227375742041</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>-0.5229713079865947</v>
+      </c>
+      <c r="C14">
+        <v>0.1373200468912488</v>
+      </c>
+      <c r="D14">
+        <v>-0.008083991230785514</v>
+      </c>
+      <c r="E14">
+        <v>0.2382467532604069</v>
+      </c>
+      <c r="F14">
+        <v>0.4436650623372186</v>
+      </c>
+      <c r="G14">
+        <v>-0.09293652210789594</v>
+      </c>
+      <c r="H14">
+        <v>0.9318583003960579</v>
+      </c>
+      <c r="I14">
+        <v>-0.1778418150659299</v>
+      </c>
+      <c r="J14">
+        <v>0.2076717016231416</v>
+      </c>
+      <c r="K14">
+        <v>-1.220454873300132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>0.1352215607376121</v>
+      </c>
+      <c r="C15">
+        <v>0.394576282901221</v>
+      </c>
+      <c r="D15">
+        <v>0.5024516537415316</v>
+      </c>
+      <c r="E15">
+        <v>-0.01862061490555972</v>
+      </c>
+      <c r="F15">
+        <v>0.9814645457991282</v>
+      </c>
+      <c r="G15">
+        <v>-0.1214230892692438</v>
+      </c>
+      <c r="H15">
+        <v>0.2574546724508893</v>
+      </c>
+      <c r="I15">
+        <v>-1.16822306313457</v>
+      </c>
+      <c r="J15">
+        <v>0.7580112694088244</v>
+      </c>
+      <c r="K15">
+        <v>-0.04348004391186661</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>0.4431135858323332</v>
+      </c>
+      <c r="C16">
+        <v>-0.06691071730724601</v>
+      </c>
+      <c r="D16">
+        <v>0.9523922750820344</v>
+      </c>
+      <c r="E16">
+        <v>-0.1523530771021347</v>
+      </c>
+      <c r="F16">
+        <v>0.231653989124794</v>
+      </c>
+      <c r="G16">
+        <v>-1.195487436112195</v>
+      </c>
+      <c r="H16">
+        <v>0.7322449414040739</v>
+      </c>
+      <c r="I16">
+        <v>-0.06985546698932471</v>
+      </c>
+      <c r="J16">
+        <v>-0.3225258433607738</v>
+      </c>
+      <c r="K16">
+        <v>0.08293473690653552</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>0.9345116480003648</v>
+      </c>
+      <c r="C17">
+        <v>-0.2437751967119285</v>
+      </c>
+      <c r="D17">
+        <v>0.2265885226010309</v>
+      </c>
+      <c r="E17">
+        <v>-1.219985280608244</v>
+      </c>
+      <c r="F17">
+        <v>0.7246694688831352</v>
+      </c>
+      <c r="G17">
+        <v>-0.08214309181884255</v>
+      </c>
+      <c r="H17">
+        <v>-0.3314326658792799</v>
+      </c>
+      <c r="I17">
+        <v>0.07293718095136492</v>
+      </c>
+      <c r="J17">
+        <v>0.2230694871455429</v>
+      </c>
+      <c r="K17">
+        <v>-1.02735242951824</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>-0.124219070204857</v>
+      </c>
+      <c r="C18">
+        <v>0.2711135653838812</v>
+      </c>
+      <c r="D18">
+        <v>-1.166884543156135</v>
+      </c>
+      <c r="E18">
+        <v>0.764566997099051</v>
+      </c>
+      <c r="F18">
+        <v>-0.04034538708795993</v>
+      </c>
+      <c r="G18">
+        <v>-0.2918750531241797</v>
+      </c>
+      <c r="H18">
+        <v>0.1128335463391874</v>
+      </c>
+      <c r="I18">
+        <v>0.2626182715668234</v>
+      </c>
+      <c r="J18">
+        <v>-0.9877637495198823</v>
+      </c>
+      <c r="K18">
+        <v>0.1125161958866422</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>0.3444834760590621</v>
+      </c>
+      <c r="C19">
+        <v>-1.414544478922743</v>
+      </c>
+      <c r="D19">
+        <v>0.786702744679374</v>
+      </c>
+      <c r="E19">
+        <v>-0.1194248959072557</v>
+      </c>
+      <c r="F19">
+        <v>-0.3000136554415573</v>
+      </c>
+      <c r="G19">
+        <v>0.07437234560678774</v>
+      </c>
+      <c r="H19">
+        <v>0.2432275639349734</v>
+      </c>
+      <c r="I19">
+        <v>-1.015993080301116</v>
+      </c>
+      <c r="J19">
+        <v>0.0894907047674211</v>
+      </c>
+      <c r="K19">
+        <v>-0.2631009094413094</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>-1.318225529301968</v>
+      </c>
+      <c r="C20">
+        <v>0.8042379617406963</v>
+      </c>
+      <c r="D20">
+        <v>-0.07406458753986012</v>
+      </c>
+      <c r="E20">
+        <v>-0.2804798540615203</v>
+      </c>
+      <c r="F20">
+        <v>0.1048799399458873</v>
+      </c>
+      <c r="G20">
+        <v>0.2655569115690016</v>
+      </c>
+      <c r="H20">
+        <v>-0.9898037848146515</v>
+      </c>
+      <c r="I20">
+        <v>0.1131412743193428</v>
+      </c>
+      <c r="J20">
+        <v>-0.2381778581597406</v>
+      </c>
+      <c r="K20">
+        <v>-0.2374930061195309</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>0.8612089527377358</v>
+      </c>
+      <c r="C21">
+        <v>-0.1038520988358458</v>
+      </c>
+      <c r="D21">
+        <v>-0.2660158855759732</v>
+      </c>
+      <c r="E21">
+        <v>0.09629337929642173</v>
+      </c>
+      <c r="F21">
+        <v>0.2687223188639184</v>
+      </c>
+      <c r="G21">
+        <v>-0.9927447645350961</v>
+      </c>
+      <c r="H21">
+        <v>0.1133186608204669</v>
+      </c>
+      <c r="I21">
+        <v>-0.2396156348395068</v>
+      </c>
+      <c r="J21">
+        <v>-0.2381045309111159</v>
+      </c>
+      <c r="K21">
+        <v>-0.3388652402803405</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>-0.4303094269693575</v>
+      </c>
+      <c r="C22">
+        <v>0.06551612562513531</v>
+      </c>
+      <c r="D22">
+        <v>-0.03872287496785509</v>
+      </c>
+      <c r="E22">
+        <v>0.3839800914176045</v>
+      </c>
+      <c r="F22">
+        <v>-1.038410998350545</v>
+      </c>
+      <c r="G22">
+        <v>0.158926933604026</v>
+      </c>
+      <c r="H22">
+        <v>-0.2501658316755339</v>
+      </c>
+      <c r="I22">
+        <v>-0.216023454906855</v>
+      </c>
+      <c r="J22">
+        <v>-0.3364522563073208</v>
+      </c>
+      <c r="K22">
+        <v>1.275482877085513</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>0.0312974683559899</v>
+      </c>
+      <c r="C23">
+        <v>-0.1601230449023057</v>
+      </c>
+      <c r="D23">
+        <v>0.3683166817503808</v>
+      </c>
+      <c r="E23">
+        <v>-1.099621416140978</v>
+      </c>
+      <c r="F23">
+        <v>0.1345640148818237</v>
+      </c>
+      <c r="G23">
+        <v>-0.2940863055476903</v>
+      </c>
+      <c r="H23">
+        <v>-0.2463970094601091</v>
+      </c>
+      <c r="I23">
+        <v>-0.3746723266622332</v>
+      </c>
+      <c r="J23">
+        <v>1.242352820149642</v>
+      </c>
+      <c r="K23">
+        <v>-0.06779007344399751</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>0.182262885480289</v>
+      </c>
+      <c r="C24">
+        <v>0.272659677856383</v>
+      </c>
+      <c r="D24">
+        <v>-0.9676645820475104</v>
+      </c>
+      <c r="E24">
+        <v>0.1201967173477503</v>
+      </c>
+      <c r="F24">
+        <v>-0.2270125397300873</v>
+      </c>
+      <c r="G24">
+        <v>-0.2296341431609453</v>
+      </c>
+      <c r="H24">
+        <v>-0.3289038168349118</v>
+      </c>
+      <c r="I24">
+        <v>1.27052910893036</v>
+      </c>
+      <c r="J24">
+        <v>-0.02928794035864701</v>
+      </c>
+      <c r="K24">
+        <v>0.4705876814386124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>0.2794518468537206</v>
+      </c>
+      <c r="C25">
+        <v>-0.8991727596000183</v>
+      </c>
+      <c r="D25">
+        <v>0.1293393530662481</v>
+      </c>
+      <c r="E25">
+        <v>-0.1967242728414905</v>
+      </c>
+      <c r="F25">
+        <v>-0.2159071820448117</v>
+      </c>
+      <c r="G25">
+        <v>-0.3083803897927102</v>
+      </c>
+      <c r="H25">
+        <v>1.286373220192023</v>
+      </c>
+      <c r="I25">
+        <v>-0.01133864910797416</v>
+      </c>
+      <c r="J25">
+        <v>0.4872035100838164</v>
+      </c>
+      <c r="K25">
+        <v>-0.01211462534983654</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>-0.7389771990405957</v>
+      </c>
+      <c r="C26">
+        <v>0.09026554094699279</v>
+      </c>
+      <c r="D26">
+        <v>-0.1389950788702813</v>
+      </c>
+      <c r="E26">
+        <v>-0.2208854317985259</v>
+      </c>
+      <c r="F26">
+        <v>-0.281473985971872</v>
+      </c>
+      <c r="G26">
+        <v>1.293471901154328</v>
+      </c>
+      <c r="H26">
+        <v>0.006162270738077957</v>
+      </c>
+      <c r="I26">
+        <v>0.4984312992575345</v>
+      </c>
+      <c r="J26">
+        <v>0.002482602115770449</v>
+      </c>
+      <c r="K26">
+        <v>-0.1999170252419618</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>0.08161557086408799</v>
+      </c>
+      <c r="C27">
+        <v>-0.2702871371701617</v>
+      </c>
+      <c r="D27">
+        <v>-0.2181204049370791</v>
+      </c>
+      <c r="E27">
+        <v>-0.3240292587457392</v>
+      </c>
+      <c r="F27">
+        <v>1.288296143815789</v>
+      </c>
+      <c r="G27">
+        <v>-0.01432482235850902</v>
+      </c>
+      <c r="H27">
+        <v>0.488716010350045</v>
+      </c>
+      <c r="I27">
+        <v>-0.0121915932100653</v>
+      </c>
+      <c r="J27">
+        <v>-0.2114139563956494</v>
+      </c>
+      <c r="K27">
+        <v>1.488300689628418</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>0.04005592400305957</v>
+      </c>
+      <c r="C28">
+        <v>-0.2455023352337732</v>
+      </c>
+      <c r="D28">
+        <v>-0.2295192078795227</v>
+      </c>
+      <c r="E28">
+        <v>1.294887026541188</v>
+      </c>
+      <c r="F28">
+        <v>0.02844194001286415</v>
+      </c>
+      <c r="G28">
+        <v>0.5081450997695571</v>
+      </c>
+      <c r="H28">
+        <v>0.0176953516747822</v>
+      </c>
+      <c r="I28">
+        <v>-0.1878084628075376</v>
+      </c>
+      <c r="J28">
+        <v>1.514882361155235</v>
+      </c>
+      <c r="K28">
+        <v>1.013379790889904</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>-0.1200726774069856</v>
+      </c>
+      <c r="C29">
+        <v>-0.2277775795296293</v>
+      </c>
+      <c r="D29">
+        <v>1.34794894948874</v>
+      </c>
+      <c r="E29">
+        <v>0.04730875052275219</v>
+      </c>
+      <c r="F29">
+        <v>0.5423663176215542</v>
+      </c>
+      <c r="G29">
+        <v>0.0424259916097427</v>
+      </c>
+      <c r="H29">
+        <v>-0.1585876911327806</v>
+      </c>
+      <c r="I29">
+        <v>1.541463628002659</v>
+      </c>
+      <c r="J29">
+        <v>1.041254216060759</v>
+      </c>
+      <c r="K29">
+        <v>-2.258727203274705</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>-0.4410762347870681</v>
+      </c>
+      <c r="C30">
+        <v>1.314055791862329</v>
+      </c>
+      <c r="D30">
+        <v>-0.03670454151797098</v>
+      </c>
+      <c r="E30">
+        <v>0.4840564393561218</v>
+      </c>
+      <c r="F30">
+        <v>-0.02322455873317802</v>
+      </c>
+      <c r="G30">
+        <v>-0.2203888375770346</v>
+      </c>
+      <c r="H30">
+        <v>1.47858349512379</v>
+      </c>
+      <c r="I30">
+        <v>0.9789747201631037</v>
+      </c>
+      <c r="J30">
+        <v>-2.321169268851575</v>
+      </c>
+      <c r="K30">
+        <v>0.4788849653295497</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <v>1.177808757882956</v>
+      </c>
+      <c r="C31">
+        <v>0.07169947742658578</v>
+      </c>
+      <c r="D31">
+        <v>0.4464307518087287</v>
+      </c>
+      <c r="E31">
+        <v>0.007878613324015737</v>
+      </c>
+      <c r="F31">
+        <v>-0.2297138239723109</v>
+      </c>
+      <c r="G31">
+        <v>1.489532245697795</v>
+      </c>
+      <c r="H31">
+        <v>0.9781637928665377</v>
+      </c>
+      <c r="I31">
+        <v>-2.315852052300145</v>
+      </c>
+      <c r="J31">
+        <v>0.4806922489143656</v>
+      </c>
+      <c r="K31">
+        <v>0.2825443403235202</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>0.6017233028565812</v>
+      </c>
+      <c r="C32">
+        <v>0.00541630150736136</v>
+      </c>
+      <c r="D32">
+        <v>0.2346554094652962</v>
+      </c>
+      <c r="E32">
+        <v>-0.4091354898709483</v>
+      </c>
+      <c r="F32">
+        <v>1.576130547645367</v>
+      </c>
+      <c r="G32">
+        <v>0.8988719989430107</v>
+      </c>
+      <c r="H32">
+        <v>-2.288657232499908</v>
+      </c>
+      <c r="I32">
+        <v>0.440896029499445</v>
+      </c>
+      <c r="J32">
+        <v>0.2853741309604284</v>
+      </c>
+      <c r="K32">
+        <v>0.5574299762358264</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>0.823694901151915</v>
+      </c>
+      <c r="C33">
+        <v>-0.1827261175818944</v>
+      </c>
+      <c r="D33">
+        <v>-0.1570561873884816</v>
+      </c>
+      <c r="E33">
+        <v>1.48722032329419</v>
+      </c>
+      <c r="F33">
+        <v>0.988522430646401</v>
+      </c>
+      <c r="G33">
+        <v>-2.3052620661607</v>
+      </c>
+      <c r="H33">
+        <v>0.491315140291503</v>
+      </c>
+      <c r="I33">
+        <v>0.2923417490234352</v>
+      </c>
+      <c r="J33">
+        <v>0.5922267908533625</v>
+      </c>
+      <c r="K33">
+        <v>0.2921600170454016</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
         <v>0.2041586444627012</v>
       </c>
-      <c r="C2">
+      <c r="C34">
         <v>-0.317315650508697</v>
       </c>
-      <c r="D2">
+      <c r="D34">
         <v>1.506101047285106</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
+      <c r="E34">
+        <v>0.9631965612852782</v>
+      </c>
+      <c r="F34">
+        <v>-2.322908672966445</v>
+      </c>
+      <c r="G34">
+        <v>0.4728483965007392</v>
+      </c>
+      <c r="H34">
+        <v>0.2740745846253654</v>
+      </c>
+      <c r="I34">
+        <v>0.5737401254604867</v>
+      </c>
+      <c r="J34">
+        <v>0.2738253255661342</v>
+      </c>
+      <c r="K34">
+        <v>0.3738055560226597</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
         <v>-0.20815504766357</v>
       </c>
-      <c r="C3">
+      <c r="C35">
         <v>1.460937717351997</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
+      <c r="D35">
+        <v>0.9755439442872758</v>
+      </c>
+      <c r="E35">
+        <v>-2.32857259280587</v>
+      </c>
+      <c r="F35">
+        <v>0.4721150630997129</v>
+      </c>
+      <c r="G35">
+        <v>0.2721345725694499</v>
+      </c>
+      <c r="H35">
+        <v>0.5720706495701452</v>
+      </c>
+      <c r="I35">
+        <v>0.2720979429425786</v>
+      </c>
+      <c r="J35">
+        <v>0.3720907452073705</v>
+      </c>
+      <c r="K35">
+        <v>0.3720918069459756</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
         <v>1.167899071513181</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
+      <c r="C36">
+        <v>1.167094431530713</v>
+      </c>
+      <c r="D36">
+        <v>-2.238862450229409</v>
+      </c>
+      <c r="E36">
+        <v>0.5161579888235781</v>
+      </c>
+      <c r="F36">
+        <v>0.3525880782783811</v>
+      </c>
+      <c r="G36">
+        <v>0.6459295254139845</v>
+      </c>
+      <c r="H36">
+        <v>0.3422191217684905</v>
+      </c>
+      <c r="I36">
+        <v>0.4448606090257913</v>
+      </c>
+      <c r="J36">
+        <v>0.4444562391471263</v>
+      </c>
+      <c r="K36">
+        <v>0.5441559531910951</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
         <v>1.713367536971843</v>
       </c>
-      <c r="C5">
+      <c r="C37">
         <v>-2.474187431820313</v>
       </c>
-      <c r="D5">
+      <c r="D37">
         <v>0.4111563609322812</v>
       </c>
-      <c r="E5">
+      <c r="E37">
         <v>0.3036778841160683</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
+      <c r="F37">
+        <v>0.5475959152559216</v>
+      </c>
+      <c r="G37">
+        <v>0.2600549782875362</v>
+      </c>
+      <c r="H37">
+        <v>0.3625908994603474</v>
+      </c>
+      <c r="I37">
+        <v>0.3595429837681616</v>
+      </c>
+      <c r="J37">
+        <v>0.4605921848378652</v>
+      </c>
+      <c r="K37">
+        <v>-0.03944429409917638</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
         <v>-1.934752120961668</v>
       </c>
-      <c r="C6">
+      <c r="C38">
         <v>0.3549748406297492</v>
       </c>
-      <c r="D6">
+      <c r="D38">
         <v>0.2564759890460406</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
+      <c r="E38">
+        <v>0.5588128985342076</v>
+      </c>
+      <c r="F38">
+        <v>0.2481791056204828</v>
+      </c>
+      <c r="G38">
+        <v>0.3527587720314439</v>
+      </c>
+      <c r="H38">
+        <v>0.3516949970639681</v>
+      </c>
+      <c r="I38">
+        <v>0.4517430030190392</v>
+      </c>
+      <c r="J38">
+        <v>-0.04817827658084156</v>
+      </c>
+      <c r="K38">
+        <v>0.05178165777642429</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
         <v>-0.9091272736756697</v>
       </c>
-      <c r="C7">
+      <c r="C39">
         <v>0.8379364208866271</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
+      <c r="D39">
+        <v>0.1382970203836824</v>
+      </c>
+      <c r="E39">
+        <v>0.3544631608661491</v>
+      </c>
+      <c r="F39">
+        <v>0.1883339380094628</v>
+      </c>
+      <c r="G39">
+        <v>0.3255996041829696</v>
+      </c>
+      <c r="H39">
+        <v>0.3548069402225765</v>
+      </c>
+      <c r="I39">
+        <v>-0.1086818925102996</v>
+      </c>
+      <c r="J39">
+        <v>-0.02751232526805991</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40">
         <v>0.3124575324117352</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
+      <c r="C40">
+        <v>0.4531815465673612</v>
+      </c>
+      <c r="D40">
+        <v>0.2146609828341625</v>
+      </c>
+      <c r="E40">
+        <v>0.2918750811718896</v>
+      </c>
+      <c r="F40">
+        <v>0.3003801519859377</v>
+      </c>
+      <c r="G40">
+        <v>0.3972095177894013</v>
+      </c>
+      <c r="H40">
+        <v>-0.101608229907572</v>
+      </c>
+      <c r="I40">
+        <v>-0.002049045853928178</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41">
         <v>0.5586933435139947</v>
       </c>
-      <c r="C9">
+      <c r="C41">
         <v>0.1779189921522184</v>
       </c>
-      <c r="D9">
+      <c r="D41">
         <v>0.3037985701168242</v>
       </c>
-      <c r="E9">
+      <c r="E41">
         <v>0.295512446150037</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
+      <c r="F41">
+        <v>0.3981655427104898</v>
+      </c>
+      <c r="G41">
+        <v>-0.1026839399095601</v>
+      </c>
+      <c r="H41">
+        <v>-0.002411948026386668</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42">
         <v>0.4096934484336369</v>
       </c>
-      <c r="C10">
+      <c r="C42">
         <v>0.28795472432474</v>
       </c>
-      <c r="D10">
+      <c r="D42">
         <v>0.3209312923645784</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
+      <c r="E42">
+        <v>0.4234285345396526</v>
+      </c>
+      <c r="F42">
+        <v>-0.0795525428375391</v>
+      </c>
+      <c r="G42">
+        <v>0.02133948892380122</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43">
         <v>0.4872844834843318</v>
       </c>
-      <c r="C11">
+      <c r="C43">
         <v>0.2873668796881647</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12">
+      <c r="D43">
+        <v>0.4231447324445135</v>
+      </c>
+      <c r="E43">
+        <v>-0.07087125345356099</v>
+      </c>
+      <c r="F43">
+        <v>0.02356521659217459</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44">
         <v>0.4220310903795553</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13">
+      <c r="C44">
+        <v>0.4505495806979731</v>
+      </c>
+      <c r="D44">
+        <v>-0.06182373721079221</v>
+      </c>
+      <c r="E44">
+        <v>0.04945121520043472</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45">
         <v>0.5981638006715656</v>
       </c>
-      <c r="C13">
+      <c r="C45">
         <v>-0.05550181425120998</v>
       </c>
-      <c r="D13">
+      <c r="D45">
         <v>0.04865461862192938</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14">
+    <row r="46" spans="1:11">
+      <c r="A46" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46">
         <v>0.168998243652269</v>
       </c>
-      <c r="C14">
+      <c r="C46">
         <v>0.08624861542179052</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15">
+    <row r="47" spans="1:11">
+      <c r="A47" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47">
         <v>0.1585083094968939</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1" t="s">
-        <v>18</v>
+    <row r="48" spans="1:11">
+      <c r="A48" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/PUBCON/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/PUBCON/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Q0</t>
   </si>
@@ -44,6 +44,21 @@
   </si>
   <si>
     <t>Q9</t>
+  </si>
+  <si>
+    <t>2007-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2008-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2008-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2009-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2009-10-01 00:00:00_diff</t>
   </si>
   <si>
     <t>2010-04-01 00:00:00_diff</t>
@@ -542,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -584,210 +599,60 @@
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2">
-        <v>-0.7299714605292147</v>
-      </c>
-      <c r="C2">
-        <v>0.6020769072469407</v>
-      </c>
-      <c r="D2">
-        <v>-0.8432842366895161</v>
-      </c>
-      <c r="E2">
-        <v>-0.1497591440111091</v>
-      </c>
-      <c r="F2">
-        <v>-0.1109590413533403</v>
-      </c>
-      <c r="G2">
-        <v>-0.1364478911566862</v>
-      </c>
-      <c r="H2">
-        <v>0.2476178856005476</v>
-      </c>
-      <c r="I2">
-        <v>0.6905825178015028</v>
-      </c>
-      <c r="J2">
-        <v>0.06919268764780939</v>
-      </c>
-      <c r="K2">
-        <v>0.3010979052072587</v>
-      </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3">
-        <v>-1.333078207328023</v>
-      </c>
-      <c r="C3">
-        <v>0.09184466503372024</v>
-      </c>
-      <c r="D3">
-        <v>-0.306859868998886</v>
-      </c>
-      <c r="E3">
-        <v>-0.06693684717107451</v>
-      </c>
-      <c r="F3">
-        <v>0.156284367882971</v>
-      </c>
-      <c r="G3">
-        <v>0.696702558568135</v>
-      </c>
-      <c r="H3">
-        <v>0.01628109099013825</v>
-      </c>
-      <c r="I3">
-        <v>0.2839455827809619</v>
-      </c>
-      <c r="J3">
-        <v>0.5446839512515818</v>
-      </c>
-      <c r="K3">
-        <v>0.6295519595250804</v>
-      </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4">
-        <v>-0.533697988844363</v>
-      </c>
-      <c r="C4">
-        <v>0.05561554472104191</v>
-      </c>
-      <c r="D4">
-        <v>0.1032623172537674</v>
-      </c>
-      <c r="E4">
-        <v>0.7247498833030506</v>
-      </c>
-      <c r="F4">
-        <v>0.007936245011672893</v>
-      </c>
-      <c r="G4">
-        <v>0.2907568866543998</v>
-      </c>
-      <c r="H4">
-        <v>0.5459782323872212</v>
-      </c>
-      <c r="I4">
-        <v>0.6322308004276898</v>
-      </c>
-      <c r="J4">
-        <v>-0.04160664058340119</v>
-      </c>
-      <c r="K4">
-        <v>0.7603831855345194</v>
-      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5">
-        <v>0.2050539388642833</v>
-      </c>
-      <c r="C5">
-        <v>0.6720530324722289</v>
-      </c>
-      <c r="D5">
-        <v>0.04185700963282135</v>
-      </c>
-      <c r="E5">
-        <v>0.2759723189514006</v>
-      </c>
-      <c r="F5">
-        <v>0.5577304195210081</v>
-      </c>
-      <c r="G5">
-        <v>0.6296516955940709</v>
-      </c>
-      <c r="H5">
-        <v>-0.03649163957817403</v>
-      </c>
-      <c r="I5">
-        <v>0.7613787284005606</v>
-      </c>
-      <c r="J5">
-        <v>-0.008831773078742</v>
-      </c>
-      <c r="K5">
-        <v>-0.0294015880027757</v>
-      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B6">
-        <v>0.0743859739021604</v>
-      </c>
-      <c r="C6">
-        <v>0.2484916085038219</v>
-      </c>
-      <c r="D6">
-        <v>0.5486540894620314</v>
-      </c>
-      <c r="E6">
-        <v>0.6154894829517112</v>
-      </c>
-      <c r="F6">
-        <v>-0.04919805406892691</v>
-      </c>
-      <c r="G6">
-        <v>0.7482606346403224</v>
-      </c>
-      <c r="H6">
-        <v>-0.0218329612096812</v>
-      </c>
-      <c r="I6">
-        <v>-0.0424359268309617</v>
-      </c>
-      <c r="J6">
-        <v>-0.2335646618814427</v>
-      </c>
-      <c r="K6">
-        <v>0.0775971426340063</v>
-      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0.5177516528570107</v>
+        <v>1.482008131270489</v>
       </c>
       <c r="C7">
-        <v>0.5989516084989068</v>
+        <v>-0.6964836661213367</v>
       </c>
       <c r="D7">
-        <v>-0.07006566944191212</v>
+        <v>0.6241204686775434</v>
       </c>
       <c r="E7">
-        <v>0.7288733088518888</v>
+        <v>-0.847225890647802</v>
       </c>
       <c r="F7">
-        <v>-0.04172429358092405</v>
+        <v>-0.1501281538820513</v>
       </c>
       <c r="G7">
-        <v>-0.06215352623373543</v>
+        <v>-0.1107635370881268</v>
       </c>
       <c r="H7">
-        <v>-0.253342672854984</v>
+        <v>-0.1364573362549492</v>
       </c>
       <c r="I7">
-        <v>0.05784029933694401</v>
+        <v>0.2476115355180475</v>
       </c>
       <c r="J7">
-        <v>-0.2948612226802226</v>
+        <v>0.6905836455451707</v>
       </c>
       <c r="K7">
-        <v>-0.2761591929195323</v>
+        <v>0.06919279488043789</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -795,34 +660,34 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.08490989780834196</v>
+        <v>0.1343264980390363</v>
       </c>
       <c r="C8">
-        <v>0.6579669891655838</v>
+        <v>-0.6056220816029726</v>
       </c>
       <c r="D8">
-        <v>-0.0337082983877815</v>
+        <v>-0.346028981527597</v>
       </c>
       <c r="E8">
-        <v>-0.08162513797933685</v>
+        <v>-0.04125249310251511</v>
       </c>
       <c r="F8">
-        <v>-0.2632388740485452</v>
+        <v>-0.2277908539725258</v>
       </c>
       <c r="G8">
-        <v>0.0446084759661744</v>
+        <v>0.2537315762846798</v>
       </c>
       <c r="H8">
-        <v>-0.3069310617542014</v>
+        <v>0.6376720488874996</v>
       </c>
       <c r="I8">
-        <v>-0.2886338198710314</v>
+        <v>0.05204047245414106</v>
       </c>
       <c r="J8">
-        <v>-0.8837388304437008</v>
+        <v>0.2622834036505531</v>
       </c>
       <c r="K8">
-        <v>-0.5012736310185596</v>
+        <v>0.5578063902554287</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -830,34 +695,34 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>-0.1274421547923803</v>
+        <v>-0.5728671013730741</v>
       </c>
       <c r="C9">
-        <v>-0.0770486014252677</v>
+        <v>0.08129989878960131</v>
       </c>
       <c r="D9">
-        <v>-0.2951631847585366</v>
+        <v>-0.2808129046017294</v>
       </c>
       <c r="E9">
-        <v>0.026696954355518</v>
+        <v>0.2817789010195952</v>
       </c>
       <c r="F9">
-        <v>-0.3301959439094672</v>
+        <v>0.6293272029090342</v>
       </c>
       <c r="G9">
-        <v>-0.3098446463821599</v>
+        <v>0.05885177632757899</v>
       </c>
       <c r="H9">
-        <v>-0.9057392665350327</v>
+        <v>0.2635776847861926</v>
       </c>
       <c r="I9">
-        <v>-0.5229698416775298</v>
+        <v>0.5604852311580379</v>
       </c>
       <c r="J9">
-        <v>-0.1196902131488114</v>
+        <v>0.6244874396223087</v>
       </c>
       <c r="K9">
-        <v>-0.8022999476913057</v>
+        <v>-0.03747351369874519</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -865,34 +730,34 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.3701926332794469</v>
+        <v>-0.1790212829912135</v>
       </c>
       <c r="C10">
-        <v>0.03216762876881063</v>
+        <v>0.2290820501887736</v>
       </c>
       <c r="D10">
-        <v>-0.3561587475713705</v>
+        <v>0.6632479675301827</v>
       </c>
       <c r="E10">
-        <v>-0.3218053907032016</v>
+        <v>0.0440672086245798</v>
       </c>
       <c r="F10">
-        <v>-0.9236653191363067</v>
+        <v>0.2753298719199795</v>
       </c>
       <c r="G10">
-        <v>-0.5383207944107506</v>
+        <v>0.5579061263244192</v>
       </c>
       <c r="H10">
-        <v>-0.1361469770182494</v>
+        <v>0.6296024406275359</v>
       </c>
       <c r="I10">
-        <v>-0.8182814695954748</v>
+        <v>-0.03647797083270399</v>
       </c>
       <c r="J10">
-        <v>-0.6260012620670329</v>
+        <v>0.7613749195572812</v>
       </c>
       <c r="K10">
-        <v>0.0654350022195696</v>
+        <v>-0.008830713511278454</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -900,34 +765,34 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>-0.4004728873514054</v>
+        <v>0.6957769317995217</v>
       </c>
       <c r="C11">
-        <v>-0.256593117089281</v>
+        <v>0.01658649817700109</v>
       </c>
       <c r="D11">
-        <v>-0.9101840512797599</v>
+        <v>0.2662535418610028</v>
       </c>
       <c r="E11">
-        <v>-0.5025923029955829</v>
+        <v>0.5437439136820594</v>
       </c>
       <c r="F11">
-        <v>-0.1102192146290291</v>
+        <v>0.616896026136783</v>
       </c>
       <c r="G11">
-        <v>-0.7880640150092376</v>
+        <v>-0.04959606459294219</v>
       </c>
       <c r="H11">
-        <v>-0.597664389751444</v>
+        <v>0.748373731426342</v>
       </c>
       <c r="I11">
-        <v>0.09459588394845259</v>
+        <v>-0.02186505233946445</v>
       </c>
       <c r="J11">
-        <v>-0.05670146612383903</v>
+        <v>-0.04242681654311065</v>
       </c>
       <c r="K11">
-        <v>0.1944604638394308</v>
+        <v>-0.2335672477506408</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -935,34 +800,34 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.9849032593006282</v>
+        <v>0.2353511052559822</v>
       </c>
       <c r="C12">
-        <v>-0.4590385042713793</v>
+        <v>0.527206039229255</v>
       </c>
       <c r="D12">
-        <v>-0.1167798226740139</v>
+        <v>0.5960284107637978</v>
       </c>
       <c r="E12">
-        <v>-0.7745358769178239</v>
+        <v>-0.0689833903813758</v>
       </c>
       <c r="F12">
-        <v>-0.5922783908144118</v>
+        <v>0.7284823990550992</v>
       </c>
       <c r="G12">
-        <v>0.1032687034279631</v>
+        <v>-0.04158265174223819</v>
       </c>
       <c r="H12">
-        <v>-0.04935447506283103</v>
+        <v>-0.06220482751665191</v>
       </c>
       <c r="I12">
-        <v>0.202341374793338</v>
+        <v>-0.2533240910477031</v>
       </c>
       <c r="J12">
-        <v>0.4056038767674951</v>
+        <v>0.05783356887774294</v>
       </c>
       <c r="K12">
-        <v>-0.1298858332140357</v>
+        <v>-0.2948587848591548</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -970,34 +835,34 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>-0.308527418212264</v>
+        <v>0.7510039780140518</v>
       </c>
       <c r="C13">
-        <v>-0.6267773589603296</v>
+        <v>-0.1398897100676808</v>
       </c>
       <c r="D13">
-        <v>-0.6144529728654671</v>
+        <v>0.7364983942482417</v>
       </c>
       <c r="E13">
-        <v>0.1543725298048982</v>
+        <v>-0.0610542634878396</v>
       </c>
       <c r="F13">
-        <v>-0.03138556607043652</v>
+        <v>-0.07210102871021312</v>
       </c>
       <c r="G13">
-        <v>0.2350511631648266</v>
+        <v>-0.2665559144184727</v>
       </c>
       <c r="H13">
-        <v>0.4317234200289905</v>
+        <v>0.04576372980376414</v>
       </c>
       <c r="I13">
-        <v>-0.1008259529510956</v>
+        <v>-0.3073334118106539</v>
       </c>
       <c r="J13">
-        <v>0.922140718314054</v>
+        <v>-0.2884936900025931</v>
       </c>
       <c r="K13">
-        <v>-0.1867227375742041</v>
+        <v>-0.8837876346620951</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1005,34 +870,34 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.5229713079865947</v>
+        <v>0.6427645378436428</v>
       </c>
       <c r="C14">
-        <v>0.1373200468912488</v>
+        <v>-0.05647772693377046</v>
       </c>
       <c r="D14">
-        <v>-0.008083991230785514</v>
+        <v>-0.1040253394202045</v>
       </c>
       <c r="E14">
-        <v>0.2382467532604069</v>
+        <v>-0.2844674360291291</v>
       </c>
       <c r="F14">
-        <v>0.4436650623372186</v>
+        <v>0.0224988476484983</v>
       </c>
       <c r="G14">
-        <v>-0.09293652210789594</v>
+        <v>-0.3285442383217824</v>
       </c>
       <c r="H14">
-        <v>0.9318583003960579</v>
+        <v>-0.310494126093925</v>
       </c>
       <c r="I14">
-        <v>-0.1778418150659299</v>
+        <v>-0.9054838453210653</v>
       </c>
       <c r="J14">
-        <v>0.2076717016231416</v>
+        <v>-0.5230702881002114</v>
       </c>
       <c r="K14">
-        <v>-1.220454873300132</v>
+        <v>-0.1196507114953632</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1040,34 +905,34 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0.1352215607376121</v>
+        <v>-0.1790547879411148</v>
       </c>
       <c r="C15">
-        <v>0.394576282901221</v>
+        <v>-0.2789967616158365</v>
       </c>
       <c r="D15">
-        <v>0.5024516537415316</v>
+        <v>-0.00346395601340499</v>
       </c>
       <c r="E15">
-        <v>-0.01862061490555972</v>
+        <v>-0.3405049826428241</v>
       </c>
       <c r="F15">
-        <v>0.9814645457991282</v>
+        <v>-0.328420178695199</v>
       </c>
       <c r="G15">
-        <v>-0.1214230892692438</v>
+        <v>-0.9208347980542861</v>
       </c>
       <c r="H15">
-        <v>0.2574546724508893</v>
+        <v>-0.5395270519696493</v>
       </c>
       <c r="I15">
-        <v>-1.16822306313457</v>
+        <v>-0.1356322333995322</v>
       </c>
       <c r="J15">
-        <v>0.7580112694088244</v>
+        <v>-0.8185010300748822</v>
       </c>
       <c r="K15">
-        <v>-0.04348004391186661</v>
+        <v>-0.625907596838349</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1075,34 +940,34 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>0.4431135858323332</v>
+        <v>-0.04777809579343989</v>
       </c>
       <c r="C16">
-        <v>-0.06691071730724601</v>
+        <v>-0.2752927090289034</v>
       </c>
       <c r="D16">
-        <v>0.9523922750820344</v>
+        <v>-0.3149389108386522</v>
       </c>
       <c r="E16">
-        <v>-0.1523530771021347</v>
+        <v>-0.8851063066391184</v>
       </c>
       <c r="F16">
-        <v>0.231653989124794</v>
+        <v>-0.5135992895804291</v>
       </c>
       <c r="G16">
-        <v>-1.195487436112195</v>
+        <v>-0.105414778813295</v>
       </c>
       <c r="H16">
-        <v>0.7322449414040739</v>
+        <v>-0.7901641577592933</v>
       </c>
       <c r="I16">
-        <v>-0.06985546698932471</v>
+        <v>-0.5967467151094659</v>
       </c>
       <c r="J16">
-        <v>-0.3225258433607738</v>
+        <v>0.09419485801001448</v>
       </c>
       <c r="K16">
-        <v>0.08293473690653552</v>
+        <v>-0.05652622151578462</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1110,34 +975,34 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>0.9345116480003648</v>
+        <v>-0.3896581188595205</v>
       </c>
       <c r="C17">
-        <v>-0.2437751967119285</v>
+        <v>-0.8415525079149149</v>
       </c>
       <c r="D17">
-        <v>0.2265885226010309</v>
+        <v>-0.5201598976254139</v>
       </c>
       <c r="E17">
-        <v>-1.219985280608244</v>
+        <v>-0.09188664072188124</v>
       </c>
       <c r="F17">
-        <v>0.7246694688831352</v>
+        <v>-0.7847781588222611</v>
       </c>
       <c r="G17">
-        <v>-0.08214309181884255</v>
+        <v>-0.5880738956299554</v>
       </c>
       <c r="H17">
-        <v>-0.3314326658792799</v>
+        <v>0.1015418490710225</v>
       </c>
       <c r="I17">
-        <v>0.07293718095136492</v>
+        <v>-0.04864531056187743</v>
       </c>
       <c r="J17">
-        <v>0.2230694871455429</v>
+        <v>0.2020501357169112</v>
       </c>
       <c r="K17">
-        <v>-1.02735242951824</v>
+        <v>0.4057234818793743</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1145,34 +1010,34 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>-0.124219070204857</v>
+        <v>-0.711907493163664</v>
       </c>
       <c r="C18">
-        <v>0.2711135653838812</v>
+        <v>0.05587187723561299</v>
       </c>
       <c r="D18">
-        <v>-1.166884543156135</v>
+        <v>-0.8069527408733164</v>
       </c>
       <c r="E18">
-        <v>0.764566997099051</v>
+        <v>-0.5369700692530204</v>
       </c>
       <c r="F18">
-        <v>-0.04034538708795993</v>
+        <v>0.119510758063417</v>
       </c>
       <c r="G18">
-        <v>-0.2918750531241797</v>
+        <v>-0.0159355221903888</v>
       </c>
       <c r="H18">
-        <v>0.1128335463391874</v>
+        <v>0.2281696789784066</v>
       </c>
       <c r="I18">
-        <v>0.2626182715668234</v>
+        <v>0.4347833621423144</v>
       </c>
       <c r="J18">
-        <v>-0.9877637495198823</v>
+        <v>-0.1021873461060923</v>
       </c>
       <c r="K18">
-        <v>0.1125161958866422</v>
+        <v>0.9227463024967298</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1180,34 +1045,34 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>0.3444834760590621</v>
+        <v>-0.715471075994444</v>
       </c>
       <c r="C19">
-        <v>-1.414544478922743</v>
+        <v>-0.5540225521666697</v>
       </c>
       <c r="D19">
-        <v>0.786702744679374</v>
+        <v>0.142812332903068</v>
       </c>
       <c r="E19">
-        <v>-0.1194248959072557</v>
+        <v>-0.0127399320948085</v>
       </c>
       <c r="F19">
-        <v>-0.3000136554415573</v>
+        <v>0.2401113212866347</v>
       </c>
       <c r="G19">
-        <v>0.07437234560678774</v>
+        <v>0.4426727929855141</v>
       </c>
       <c r="H19">
-        <v>0.2432275639349734</v>
+        <v>-0.09246976402408841</v>
       </c>
       <c r="I19">
-        <v>-1.015993080301116</v>
+        <v>0.9316272250050039</v>
       </c>
       <c r="J19">
-        <v>0.0894907047674211</v>
+        <v>-0.1777298649641946</v>
       </c>
       <c r="K19">
-        <v>-0.2631009094413094</v>
+        <v>0.2076169705229901</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1215,34 +1080,34 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>-1.318225529301968</v>
+        <v>0.2861178848714656</v>
       </c>
       <c r="C20">
-        <v>0.8042379617406963</v>
+        <v>0.1435895975460056</v>
       </c>
       <c r="D20">
-        <v>-0.07406458753986012</v>
+        <v>0.2988979126909477</v>
       </c>
       <c r="E20">
-        <v>-0.2804798540615203</v>
+        <v>0.5169887001878504</v>
       </c>
       <c r="F20">
-        <v>0.1048799399458873</v>
+        <v>-0.042863518621018</v>
       </c>
       <c r="G20">
-        <v>0.2655569115690016</v>
+        <v>0.9880459508016901</v>
       </c>
       <c r="H20">
-        <v>-0.9898037848146515</v>
+        <v>-0.1279468941364469</v>
       </c>
       <c r="I20">
-        <v>0.1131412743193428</v>
+        <v>0.2598487806885517</v>
       </c>
       <c r="J20">
-        <v>-0.2381778581597406</v>
+        <v>-1.170060574414298</v>
       </c>
       <c r="K20">
-        <v>-0.2374930061195309</v>
+        <v>0.7588117208169146</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1250,34 +1115,34 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>0.8612089527377358</v>
+        <v>0.2395598447817493</v>
       </c>
       <c r="C21">
-        <v>-0.1038520988358458</v>
+        <v>0.468698597786164</v>
       </c>
       <c r="D21">
-        <v>-0.2660158855759732</v>
+        <v>-0.0719357893381119</v>
       </c>
       <c r="E21">
-        <v>0.09629337929642173</v>
+        <v>0.9571159629687993</v>
       </c>
       <c r="F21">
-        <v>0.2687223188639184</v>
+        <v>-0.1537475774625422</v>
       </c>
       <c r="G21">
-        <v>-0.9927447645350961</v>
+        <v>0.2325844077109268</v>
       </c>
       <c r="H21">
-        <v>0.1133186608204669</v>
+        <v>-1.195826902419048</v>
       </c>
       <c r="I21">
-        <v>-0.2396156348395068</v>
+        <v>0.7324362977394565</v>
       </c>
       <c r="J21">
-        <v>-0.2381045309111159</v>
+        <v>-0.06993371517648406</v>
       </c>
       <c r="K21">
-        <v>-0.3388652402803405</v>
+        <v>-0.3224854345934906</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1285,34 +1150,34 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>-0.4303094269693575</v>
+        <v>-0.0898164164197815</v>
       </c>
       <c r="C22">
-        <v>0.06551612562513531</v>
+        <v>0.8656938433590053</v>
       </c>
       <c r="D22">
-        <v>-0.03872287496785509</v>
+        <v>-0.1588130439863053</v>
       </c>
       <c r="E22">
-        <v>0.3839800914176045</v>
+        <v>0.2080865632148783</v>
       </c>
       <c r="F22">
-        <v>-1.038410998350545</v>
+        <v>-1.203402374939987</v>
       </c>
       <c r="G22">
-        <v>0.158926933604026</v>
+        <v>0.7201486729099387</v>
       </c>
       <c r="H22">
-        <v>-0.2501658316755339</v>
+        <v>-0.07884053769499011</v>
       </c>
       <c r="I22">
-        <v>-0.216023454906855</v>
+        <v>-0.3324829905486612</v>
       </c>
       <c r="J22">
-        <v>-0.3364522563073208</v>
+        <v>0.073605765732498</v>
       </c>
       <c r="K22">
-        <v>1.275482877085513</v>
+        <v>0.2228326148937978</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1320,34 +1185,34 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>0.0312974683559899</v>
+        <v>0.9852499698660769</v>
       </c>
       <c r="C23">
-        <v>-0.1601230449023057</v>
+        <v>-0.114288001203455</v>
       </c>
       <c r="D23">
-        <v>0.3683166817503808</v>
+        <v>0.2611873006669875</v>
       </c>
       <c r="E23">
-        <v>-1.099621416140978</v>
+        <v>-1.163504846724071</v>
       </c>
       <c r="F23">
-        <v>0.1345640148818237</v>
+        <v>0.7619463776408213</v>
       </c>
       <c r="G23">
-        <v>-0.2940863055476903</v>
+        <v>-0.03928292493988994</v>
       </c>
       <c r="H23">
-        <v>-0.2463970094601091</v>
+        <v>-0.2925866251608387</v>
       </c>
       <c r="I23">
-        <v>-0.3746723266622332</v>
+        <v>0.1131545501537785</v>
       </c>
       <c r="J23">
-        <v>1.242352820149642</v>
+        <v>0.2624212948921557</v>
       </c>
       <c r="K23">
-        <v>-0.06779007344399751</v>
+        <v>-0.987668849525391</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1355,34 +1220,34 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>0.182262885480289</v>
+        <v>-0.04091809052827411</v>
       </c>
       <c r="C24">
-        <v>0.272659677856383</v>
+        <v>0.01352736490037898</v>
       </c>
       <c r="D24">
-        <v>-0.9676645820475104</v>
+        <v>-1.141369099143748</v>
       </c>
       <c r="E24">
-        <v>0.1201967173477503</v>
+        <v>0.6828668688215255</v>
       </c>
       <c r="F24">
-        <v>-0.2270125397300873</v>
+        <v>-0.0474215272572675</v>
       </c>
       <c r="G24">
-        <v>-0.2296341431609453</v>
+        <v>-0.3310478258932384</v>
       </c>
       <c r="H24">
-        <v>-0.3289038168349118</v>
+        <v>0.09376384252192854</v>
       </c>
       <c r="I24">
-        <v>1.27052910893036</v>
+        <v>0.2341919641109225</v>
       </c>
       <c r="J24">
-        <v>-0.02928794035864701</v>
+        <v>-1.010694340644612</v>
       </c>
       <c r="K24">
-        <v>0.4705876814386124</v>
+        <v>0.08689909155870273</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1390,34 +1255,34 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>0.2794518468537206</v>
+        <v>0.1098463145211537</v>
       </c>
       <c r="C25">
-        <v>-0.8991727596000183</v>
+        <v>-1.123833882082426</v>
       </c>
       <c r="D25">
-        <v>0.1293393530662481</v>
+        <v>0.728227177188921</v>
       </c>
       <c r="E25">
-        <v>-0.1967242728414905</v>
+        <v>-0.02788772587723054</v>
       </c>
       <c r="F25">
-        <v>-0.2159071820448117</v>
+        <v>-0.3005402315541388</v>
       </c>
       <c r="G25">
-        <v>-0.3083803897927102</v>
+        <v>0.1160931901559567</v>
       </c>
       <c r="H25">
-        <v>1.286373220192023</v>
+        <v>0.2603812595973866</v>
       </c>
       <c r="I25">
-        <v>-0.01133864910797416</v>
+        <v>-0.9870437710926905</v>
       </c>
       <c r="J25">
-        <v>0.4872035100838164</v>
+        <v>0.1118221428402715</v>
       </c>
       <c r="K25">
-        <v>-0.01211462534983654</v>
+        <v>-0.2374930061195309</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1425,34 +1290,34 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>-0.7389771990405957</v>
+        <v>-1.066862891085386</v>
       </c>
       <c r="C26">
-        <v>0.09026554094699279</v>
+        <v>0.6984396658929354</v>
       </c>
       <c r="D26">
-        <v>-0.1389950788702813</v>
+        <v>-0.01342375739168344</v>
       </c>
       <c r="E26">
-        <v>-0.2208854317985259</v>
+        <v>-0.3091267922036044</v>
       </c>
       <c r="F26">
-        <v>-0.281473985971872</v>
+        <v>0.1192585974508735</v>
       </c>
       <c r="G26">
-        <v>1.293471901154328</v>
+        <v>0.257440279876942</v>
       </c>
       <c r="H26">
-        <v>0.006162270738077957</v>
+        <v>-0.9868663845915663</v>
       </c>
       <c r="I26">
-        <v>0.4984312992575345</v>
+        <v>0.1103843661605054</v>
       </c>
       <c r="J26">
-        <v>0.002482602115770449</v>
+        <v>-0.2381045309111159</v>
       </c>
       <c r="K26">
-        <v>-0.1999170252419618</v>
+        <v>-0.2388652402803604</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1460,34 +1325,34 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>0.08161557086408799</v>
+        <v>0.3719823377594237</v>
       </c>
       <c r="C27">
-        <v>-0.2702871371701617</v>
+        <v>0.3181082538094251</v>
       </c>
       <c r="D27">
-        <v>-0.2181204049370791</v>
+        <v>-0.4441430464678812</v>
       </c>
       <c r="E27">
-        <v>-0.3240292587457392</v>
+        <v>0.2345163700045597</v>
       </c>
       <c r="F27">
-        <v>1.288296143815789</v>
+        <v>0.2117740460614933</v>
       </c>
       <c r="G27">
-        <v>-0.01432482235850902</v>
+        <v>-0.9412581118080072</v>
       </c>
       <c r="H27">
-        <v>0.488716010350045</v>
+        <v>0.09983416932447831</v>
       </c>
       <c r="I27">
-        <v>-0.0121915932100653</v>
+        <v>-0.216023454906855</v>
       </c>
       <c r="J27">
-        <v>-0.2114139563956494</v>
+        <v>-0.2364522563073407</v>
       </c>
       <c r="K27">
-        <v>1.488300689628418</v>
+        <v>-0.3245171229144809</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1495,34 +1360,34 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>0.04005592400305957</v>
+        <v>0.2838895965402797</v>
       </c>
       <c r="C28">
-        <v>-0.2455023352337732</v>
+        <v>-0.5655432164023318</v>
       </c>
       <c r="D28">
-        <v>-0.2295192078795227</v>
+        <v>0.218852960337336</v>
       </c>
       <c r="E28">
-        <v>1.294887026541188</v>
+        <v>0.1505636282710604</v>
       </c>
       <c r="F28">
-        <v>0.02844194001286415</v>
+        <v>-0.9656210305302095</v>
       </c>
       <c r="G28">
-        <v>0.5081450997695571</v>
+        <v>0.05591369545232189</v>
       </c>
       <c r="H28">
-        <v>0.0176953516747822</v>
+        <v>-0.2463970094601091</v>
       </c>
       <c r="I28">
-        <v>-0.1878084628075376</v>
+        <v>-0.2746723266622531</v>
       </c>
       <c r="J28">
-        <v>1.514882361155235</v>
+        <v>-0.357647179850352</v>
       </c>
       <c r="K28">
-        <v>1.013379790889904</v>
+        <v>1.232209926555985</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1530,34 +1395,34 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>-0.1200726774069856</v>
+        <v>-0.2231572860197372</v>
       </c>
       <c r="C29">
-        <v>-0.2277775795296293</v>
+        <v>0.1231959564433381</v>
       </c>
       <c r="D29">
-        <v>1.34794894948874</v>
+        <v>0.2825204623645277</v>
       </c>
       <c r="E29">
-        <v>0.04730875052275219</v>
+        <v>-0.9799883280642829</v>
       </c>
       <c r="F29">
-        <v>0.5423663176215542</v>
+        <v>0.1229874612699248</v>
       </c>
       <c r="G29">
-        <v>0.0424259916097427</v>
+        <v>-0.2296341431609453</v>
       </c>
       <c r="H29">
-        <v>-0.1585876911327806</v>
+        <v>-0.2289038168349317</v>
       </c>
       <c r="I29">
-        <v>1.541463628002659</v>
+        <v>-0.3294708910696342</v>
       </c>
       <c r="J29">
-        <v>1.041254216060759</v>
+        <v>1.270712059641336</v>
       </c>
       <c r="K29">
-        <v>-2.258727203274705</v>
+        <v>-0.02941231856134496</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1565,34 +1430,34 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>-0.4410762347870681</v>
+        <v>0.1299881254406757</v>
       </c>
       <c r="C30">
-        <v>1.314055791862329</v>
+        <v>0.3510122848120198</v>
       </c>
       <c r="D30">
-        <v>-0.03670454151797098</v>
+        <v>-0.9708456923457851</v>
       </c>
       <c r="E30">
-        <v>0.4840564393561218</v>
+        <v>0.1532757281585216</v>
       </c>
       <c r="F30">
-        <v>-0.02322455873317802</v>
+        <v>-0.2159071820448117</v>
       </c>
       <c r="G30">
-        <v>-0.2203888375770346</v>
+        <v>-0.20838038979273</v>
       </c>
       <c r="H30">
-        <v>1.47858349512379</v>
+        <v>-0.3136267798079714</v>
       </c>
       <c r="I30">
-        <v>0.9789747201631037</v>
+        <v>1.288661350892009</v>
       </c>
       <c r="J30">
-        <v>-2.321169268851575</v>
+        <v>-0.01279648991614096</v>
       </c>
       <c r="K30">
-        <v>0.4788849653295497</v>
+        <v>0.4878853746501493</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1600,34 +1465,34 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>1.177808757882956</v>
+        <v>0.5112078453714424</v>
       </c>
       <c r="C31">
-        <v>0.07169947742658578</v>
+        <v>-1.00991950446504</v>
       </c>
       <c r="D31">
-        <v>0.4464307518087287</v>
+        <v>0.2110049221297309</v>
       </c>
       <c r="E31">
-        <v>0.007878613324015737</v>
+        <v>-0.2208854317985259</v>
       </c>
       <c r="F31">
-        <v>-0.2297138239723109</v>
+        <v>-0.1814739859718919</v>
       </c>
       <c r="G31">
-        <v>1.489532245697795</v>
+        <v>-0.3065280988456661</v>
       </c>
       <c r="H31">
-        <v>0.9781637928665377</v>
+        <v>1.306162270738061</v>
       </c>
       <c r="I31">
-        <v>-2.315852052300145</v>
+        <v>-0.001568700742422879</v>
       </c>
       <c r="J31">
-        <v>0.4806922489143656</v>
+        <v>0.5024826021157562</v>
       </c>
       <c r="K31">
-        <v>0.2825443403235202</v>
+        <v>8.297475804108778E-05</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1635,34 +1500,34 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>0.6017233028565812</v>
+        <v>-1.018569474547945</v>
       </c>
       <c r="C32">
-        <v>0.00541630150736136</v>
+        <v>0.07971286382985049</v>
       </c>
       <c r="D32">
-        <v>0.2346554094652962</v>
+        <v>-0.2181204049370791</v>
       </c>
       <c r="E32">
-        <v>-0.4091354898709483</v>
+        <v>-0.2240292587457591</v>
       </c>
       <c r="F32">
-        <v>1.576130547645367</v>
+        <v>-0.3117038561842055</v>
       </c>
       <c r="G32">
-        <v>0.8988719989430107</v>
+        <v>1.285675177641474</v>
       </c>
       <c r="H32">
-        <v>-2.288657232499908</v>
+        <v>-0.0112839896499124</v>
       </c>
       <c r="I32">
-        <v>0.440896029499445</v>
+        <v>0.4878084067899205</v>
       </c>
       <c r="J32">
-        <v>0.2853741309604284</v>
+        <v>-0.01141395639564652</v>
       </c>
       <c r="K32">
-        <v>0.5574299762358264</v>
+        <v>-0.2116993103715848</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1670,34 +1535,34 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>0.823694901151915</v>
+        <v>0.3900559250030717</v>
       </c>
       <c r="C33">
-        <v>-0.1827261175818944</v>
+        <v>-0.2455023352337732</v>
       </c>
       <c r="D33">
-        <v>-0.1570561873884816</v>
+        <v>-0.1295192078795426</v>
       </c>
       <c r="E33">
-        <v>1.48722032329419</v>
+        <v>-0.3051129734588064</v>
       </c>
       <c r="F33">
-        <v>0.988522430646401</v>
+        <v>1.328441940012847</v>
       </c>
       <c r="G33">
-        <v>-2.3052620661607</v>
+        <v>0.008145099769599762</v>
       </c>
       <c r="H33">
-        <v>0.491315140291503</v>
+        <v>0.517695351674768</v>
       </c>
       <c r="I33">
-        <v>0.2923417490234352</v>
+        <v>0.01219153719246524</v>
       </c>
       <c r="J33">
-        <v>0.5922267908533625</v>
+        <v>-0.185117638844768</v>
       </c>
       <c r="K33">
-        <v>0.2921600170454016</v>
+        <v>1.51337979088989</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1705,34 +1570,34 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>0.2041586444627012</v>
+        <v>-0.1200726774069856</v>
       </c>
       <c r="C34">
-        <v>-0.317315650508697</v>
+        <v>-0.1277775795296492</v>
       </c>
       <c r="D34">
-        <v>1.506101047285106</v>
+        <v>-0.252051050511254</v>
       </c>
       <c r="E34">
-        <v>0.9631965612852782</v>
+        <v>1.347308750522735</v>
       </c>
       <c r="F34">
-        <v>-2.322908672966445</v>
+        <v>0.04236631762159682</v>
       </c>
       <c r="G34">
-        <v>0.4728483965007392</v>
+        <v>0.5424259916097285</v>
       </c>
       <c r="H34">
-        <v>0.2740745846253654</v>
+        <v>0.04141230886722225</v>
       </c>
       <c r="I34">
-        <v>0.5737401254604867</v>
+        <v>-0.1585363719973443</v>
       </c>
       <c r="J34">
-        <v>0.2738253255661342</v>
+        <v>1.541254216060745</v>
       </c>
       <c r="K34">
-        <v>0.3738055560226597</v>
+        <v>1.041272796725292</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1740,34 +1605,31 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>-0.20815504766357</v>
+        <v>-0.341076234787088</v>
       </c>
       <c r="C35">
-        <v>1.460937717351997</v>
+        <v>-0.2859442081376655</v>
       </c>
       <c r="D35">
-        <v>0.9755439442872758</v>
+        <v>1.263295458482012</v>
       </c>
       <c r="E35">
-        <v>-2.32857259280587</v>
+        <v>-0.01594356064383556</v>
       </c>
       <c r="F35">
-        <v>0.4721150630997129</v>
+        <v>0.4767754412668078</v>
       </c>
       <c r="G35">
-        <v>0.2721345725694499</v>
+        <v>-0.0203888375770318</v>
       </c>
       <c r="H35">
-        <v>0.5720706495701452</v>
+        <v>-0.2214165048762127</v>
       </c>
       <c r="I35">
-        <v>0.2720979429425786</v>
+        <v>1.47897472016309</v>
       </c>
       <c r="J35">
-        <v>0.3720907452073705</v>
-      </c>
-      <c r="K35">
-        <v>0.3720918069459756</v>
+        <v>0.9788307311484218</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1775,34 +1637,28 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>1.167899071513181</v>
+        <v>-0.4221912421170382</v>
       </c>
       <c r="C36">
-        <v>1.167094431530713</v>
+        <v>1.371699477426569</v>
       </c>
       <c r="D36">
-        <v>-2.238862450229409</v>
+        <v>-0.05356924819122871</v>
       </c>
       <c r="E36">
-        <v>0.5161579888235781</v>
+        <v>0.5078786133240015</v>
       </c>
       <c r="F36">
-        <v>0.3525880782783811</v>
+        <v>-0.0297138239723081</v>
       </c>
       <c r="G36">
-        <v>0.6459295254139845</v>
+        <v>-0.2104677543022083</v>
       </c>
       <c r="H36">
-        <v>0.3422191217684905</v>
+        <v>1.478163792866523</v>
       </c>
       <c r="I36">
-        <v>0.4448606090257913</v>
-      </c>
-      <c r="J36">
-        <v>0.4444562391471263</v>
-      </c>
-      <c r="K36">
-        <v>0.5441559531910951</v>
+        <v>0.9841479476998526</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1810,34 +1666,25 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>1.713367536971843</v>
+        <v>1.901723302856564</v>
       </c>
       <c r="C37">
-        <v>-2.474187431820313</v>
+        <v>-0.494583698492596</v>
       </c>
       <c r="D37">
-        <v>0.4111563609322812</v>
+        <v>0.734655409465282</v>
       </c>
       <c r="E37">
-        <v>0.3036778841160683</v>
+        <v>-0.2091354898709454</v>
       </c>
       <c r="F37">
-        <v>0.5475959152559216</v>
+        <v>-0.1238694523546355</v>
       </c>
       <c r="G37">
-        <v>0.2600549782875362</v>
+        <v>1.398871998942997</v>
       </c>
       <c r="H37">
-        <v>0.3625908994603474</v>
-      </c>
-      <c r="I37">
-        <v>0.3595429837681616</v>
-      </c>
-      <c r="J37">
-        <v>0.4605921848378652</v>
-      </c>
-      <c r="K37">
-        <v>-0.03944429409917638</v>
+        <v>1.011342767500089</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1845,34 +1692,22 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>-1.934752120961668</v>
+        <v>0.3236949011519576</v>
       </c>
       <c r="C38">
-        <v>0.3549748406297492</v>
+        <v>0.3172738824180914</v>
       </c>
       <c r="D38">
-        <v>0.2564759890460406</v>
+        <v>0.04294381261152125</v>
       </c>
       <c r="E38">
-        <v>0.5588128985342076</v>
+        <v>-0.2127796767058127</v>
       </c>
       <c r="F38">
-        <v>0.2481791056204828</v>
+        <v>1.488522430646387</v>
       </c>
       <c r="G38">
-        <v>0.3527587720314439</v>
-      </c>
-      <c r="H38">
-        <v>0.3516949970639681</v>
-      </c>
-      <c r="I38">
-        <v>0.4517430030190392</v>
-      </c>
-      <c r="J38">
-        <v>-0.04817827658084156</v>
-      </c>
-      <c r="K38">
-        <v>0.05178165777642429</v>
+        <v>0.9947379338392972</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1880,31 +1715,19 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>-0.9091272736756697</v>
+        <v>0.7041586444626869</v>
       </c>
       <c r="C39">
-        <v>0.8379364208866271</v>
+        <v>-0.1173156505086942</v>
       </c>
       <c r="D39">
-        <v>0.1382970203836824</v>
+        <v>-0.1938989527148965</v>
       </c>
       <c r="E39">
-        <v>0.3544631608661491</v>
+        <v>1.463196561285264</v>
       </c>
       <c r="F39">
-        <v>0.1883339380094628</v>
-      </c>
-      <c r="G39">
-        <v>0.3255996041829696</v>
-      </c>
-      <c r="H39">
-        <v>0.3548069402225765</v>
-      </c>
-      <c r="I39">
-        <v>-0.1086818925102996</v>
-      </c>
-      <c r="J39">
-        <v>-0.02751232526805991</v>
+        <v>0.9770913270335519</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1912,28 +1735,16 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>0.3124575324117352</v>
+        <v>-0.008155047663567117</v>
       </c>
       <c r="C40">
-        <v>0.4531815465673612</v>
+        <v>-0.2390622826480059</v>
       </c>
       <c r="D40">
-        <v>0.2146609828341625</v>
+        <v>1.475543944287262</v>
       </c>
       <c r="E40">
-        <v>0.2918750811718896</v>
-      </c>
-      <c r="F40">
-        <v>0.3003801519859377</v>
-      </c>
-      <c r="G40">
-        <v>0.3972095177894013</v>
-      </c>
-      <c r="H40">
-        <v>-0.101608229907572</v>
-      </c>
-      <c r="I40">
-        <v>-0.002049045853928178</v>
+        <v>0.9714274071941278</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1941,25 +1752,13 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>0.5586933435139947</v>
+        <v>-0.5321009284868214</v>
       </c>
       <c r="C41">
-        <v>0.1779189921522184</v>
+        <v>1.667094431530698</v>
       </c>
       <c r="D41">
-        <v>0.3037985701168242</v>
-      </c>
-      <c r="E41">
-        <v>0.295512446150037</v>
-      </c>
-      <c r="F41">
-        <v>0.3981655427104898</v>
-      </c>
-      <c r="G41">
-        <v>-0.1026839399095601</v>
-      </c>
-      <c r="H41">
-        <v>-0.002411948026386668</v>
+        <v>1.061137549770588</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1967,22 +1766,10 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>0.4096934484336369</v>
+        <v>2.213367536971829</v>
       </c>
       <c r="C42">
-        <v>0.28795472432474</v>
-      </c>
-      <c r="D42">
-        <v>0.3209312923645784</v>
-      </c>
-      <c r="E42">
-        <v>0.4234285345396526</v>
-      </c>
-      <c r="F42">
-        <v>-0.0795525428375391</v>
-      </c>
-      <c r="G42">
-        <v>0.02133948892380122</v>
+        <v>0.8258125681796842</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1990,74 +1777,57 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>0.4872844834843318</v>
-      </c>
-      <c r="C43">
-        <v>0.2873668796881647</v>
-      </c>
-      <c r="D43">
-        <v>0.4231447324445135</v>
-      </c>
-      <c r="E43">
-        <v>-0.07087125345356099</v>
-      </c>
-      <c r="F43">
-        <v>0.02356521659217459</v>
+        <v>1.365247879038329</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B44">
-        <v>0.4220310903795553</v>
-      </c>
-      <c r="C44">
-        <v>0.4505495806979731</v>
-      </c>
-      <c r="D44">
-        <v>-0.06182373721079221</v>
-      </c>
-      <c r="E44">
-        <v>0.04945121520043472</v>
-      </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B45">
-        <v>0.5981638006715656</v>
-      </c>
-      <c r="C45">
-        <v>-0.05550181425120998</v>
-      </c>
-      <c r="D45">
-        <v>0.04865461862192938</v>
-      </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B46">
-        <v>0.168998243652269</v>
-      </c>
-      <c r="C46">
-        <v>0.08624861542179052</v>
-      </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B47">
-        <v>0.1585083094968939</v>
-      </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/PUBCON/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/PUBCON/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>Q0</t>
   </si>
@@ -44,21 +44,6 @@
   </si>
   <si>
     <t>Q9</t>
-  </si>
-  <si>
-    <t>2007-10-01 00:00:00_diff</t>
-  </si>
-  <si>
-    <t>2008-04-01 00:00:00_diff</t>
-  </si>
-  <si>
-    <t>2008-10-01 00:00:00_diff</t>
-  </si>
-  <si>
-    <t>2009-04-01 00:00:00_diff</t>
-  </si>
-  <si>
-    <t>2009-10-01 00:00:00_diff</t>
   </si>
   <si>
     <t>2010-04-01 00:00:00_diff</t>
@@ -557,7 +542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -599,60 +584,210 @@
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B2">
+        <v>1.482008131270489</v>
+      </c>
+      <c r="C2">
+        <v>-0.6964836661213367</v>
+      </c>
+      <c r="D2">
+        <v>0.6241204686775434</v>
+      </c>
+      <c r="E2">
+        <v>-0.847225890647802</v>
+      </c>
+      <c r="F2">
+        <v>-0.1501281538820513</v>
+      </c>
+      <c r="G2">
+        <v>-0.1107635370881268</v>
+      </c>
+      <c r="H2">
+        <v>-0.1364573362549492</v>
+      </c>
+      <c r="I2">
+        <v>0.2476115355180475</v>
+      </c>
+      <c r="J2">
+        <v>0.6905836455451707</v>
+      </c>
+      <c r="K2">
+        <v>0.06919279488043789</v>
+      </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B3">
+        <v>0.1343264980390363</v>
+      </c>
+      <c r="C3">
+        <v>-0.6056220816029726</v>
+      </c>
+      <c r="D3">
+        <v>-0.346028981527597</v>
+      </c>
+      <c r="E3">
+        <v>-0.04125249310251511</v>
+      </c>
+      <c r="F3">
+        <v>-0.2277908539725258</v>
+      </c>
+      <c r="G3">
+        <v>0.2537315762846798</v>
+      </c>
+      <c r="H3">
+        <v>0.6376720488874996</v>
+      </c>
+      <c r="I3">
+        <v>0.05204047245414106</v>
+      </c>
+      <c r="J3">
+        <v>0.2622834036505531</v>
+      </c>
+      <c r="K3">
+        <v>0.5578063902554287</v>
+      </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B4">
+        <v>-0.5728671013730741</v>
+      </c>
+      <c r="C4">
+        <v>0.08129989878960131</v>
+      </c>
+      <c r="D4">
+        <v>-0.2808129046017294</v>
+      </c>
+      <c r="E4">
+        <v>0.2817789010195952</v>
+      </c>
+      <c r="F4">
+        <v>0.6293272029090342</v>
+      </c>
+      <c r="G4">
+        <v>0.05885177632757899</v>
+      </c>
+      <c r="H4">
+        <v>0.2635776847861926</v>
+      </c>
+      <c r="I4">
+        <v>0.5604852311580379</v>
+      </c>
+      <c r="J4">
+        <v>0.6244874396223087</v>
+      </c>
+      <c r="K4">
+        <v>-0.03747351369874519</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B5">
+        <v>-0.1790212829912135</v>
+      </c>
+      <c r="C5">
+        <v>0.2290820501887736</v>
+      </c>
+      <c r="D5">
+        <v>0.6632479675301827</v>
+      </c>
+      <c r="E5">
+        <v>0.0440672086245798</v>
+      </c>
+      <c r="F5">
+        <v>0.2753298719199795</v>
+      </c>
+      <c r="G5">
+        <v>0.5579061263244192</v>
+      </c>
+      <c r="H5">
+        <v>0.6296024406275359</v>
+      </c>
+      <c r="I5">
+        <v>-0.03647797083270399</v>
+      </c>
+      <c r="J5">
+        <v>0.7613749195572812</v>
+      </c>
+      <c r="K5">
+        <v>-0.008830713511278454</v>
+      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B6">
+        <v>0.6957769317995217</v>
+      </c>
+      <c r="C6">
+        <v>0.01658649817700109</v>
+      </c>
+      <c r="D6">
+        <v>0.2662535418610028</v>
+      </c>
+      <c r="E6">
+        <v>0.5437439136820594</v>
+      </c>
+      <c r="F6">
+        <v>0.616896026136783</v>
+      </c>
+      <c r="G6">
+        <v>-0.04959606459294219</v>
+      </c>
+      <c r="H6">
+        <v>0.748373731426342</v>
+      </c>
+      <c r="I6">
+        <v>-0.02186505233946445</v>
+      </c>
+      <c r="J6">
+        <v>-0.04242681654311065</v>
+      </c>
+      <c r="K6">
+        <v>-0.2335672477506408</v>
+      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B7">
-        <v>1.482008131270489</v>
+        <v>0.2353511052559822</v>
       </c>
       <c r="C7">
-        <v>-0.6964836661213367</v>
+        <v>0.527206039229255</v>
       </c>
       <c r="D7">
-        <v>0.6241204686775434</v>
+        <v>0.5960284107637978</v>
       </c>
       <c r="E7">
-        <v>-0.847225890647802</v>
+        <v>-0.0689833903813758</v>
       </c>
       <c r="F7">
-        <v>-0.1501281538820513</v>
+        <v>0.7284823990550992</v>
       </c>
       <c r="G7">
-        <v>-0.1107635370881268</v>
+        <v>-0.04158265174223819</v>
       </c>
       <c r="H7">
-        <v>-0.1364573362549492</v>
+        <v>-0.06220482751665191</v>
       </c>
       <c r="I7">
-        <v>0.2476115355180475</v>
+        <v>-0.2533240910477031</v>
       </c>
       <c r="J7">
-        <v>0.6905836455451707</v>
+        <v>0.05783356887774294</v>
       </c>
       <c r="K7">
-        <v>0.06919279488043789</v>
+        <v>-0.2948587848591548</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -660,34 +795,34 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.1343264980390363</v>
+        <v>0.7510039780140518</v>
       </c>
       <c r="C8">
-        <v>-0.6056220816029726</v>
+        <v>-0.1398897100676808</v>
       </c>
       <c r="D8">
-        <v>-0.346028981527597</v>
+        <v>0.7364983942482417</v>
       </c>
       <c r="E8">
-        <v>-0.04125249310251511</v>
+        <v>-0.0610542634878396</v>
       </c>
       <c r="F8">
-        <v>-0.2277908539725258</v>
+        <v>-0.07210102871021312</v>
       </c>
       <c r="G8">
-        <v>0.2537315762846798</v>
+        <v>-0.2665559144184727</v>
       </c>
       <c r="H8">
-        <v>0.6376720488874996</v>
+        <v>0.04576372980376414</v>
       </c>
       <c r="I8">
-        <v>0.05204047245414106</v>
+        <v>-0.3073334118106539</v>
       </c>
       <c r="J8">
-        <v>0.2622834036505531</v>
+        <v>-0.2884936900025931</v>
       </c>
       <c r="K8">
-        <v>0.5578063902554287</v>
+        <v>-0.8837876346620951</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -695,34 +830,34 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>-0.5728671013730741</v>
+        <v>0.6427645378436428</v>
       </c>
       <c r="C9">
-        <v>0.08129989878960131</v>
+        <v>-0.05647772693377046</v>
       </c>
       <c r="D9">
-        <v>-0.2808129046017294</v>
+        <v>-0.1040253394202045</v>
       </c>
       <c r="E9">
-        <v>0.2817789010195952</v>
+        <v>-0.2844674360291291</v>
       </c>
       <c r="F9">
-        <v>0.6293272029090342</v>
+        <v>0.0224988476484983</v>
       </c>
       <c r="G9">
-        <v>0.05885177632757899</v>
+        <v>-0.3285442383217824</v>
       </c>
       <c r="H9">
-        <v>0.2635776847861926</v>
+        <v>-0.310494126093925</v>
       </c>
       <c r="I9">
-        <v>0.5604852311580379</v>
+        <v>-0.9054838453210653</v>
       </c>
       <c r="J9">
-        <v>0.6244874396223087</v>
+        <v>-0.5230702881002114</v>
       </c>
       <c r="K9">
-        <v>-0.03747351369874519</v>
+        <v>-0.1196507114953632</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -730,34 +865,34 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.1790212829912135</v>
+        <v>-0.1790547879411148</v>
       </c>
       <c r="C10">
-        <v>0.2290820501887736</v>
+        <v>-0.2789967616158365</v>
       </c>
       <c r="D10">
-        <v>0.6632479675301827</v>
+        <v>-0.00346395601340499</v>
       </c>
       <c r="E10">
-        <v>0.0440672086245798</v>
+        <v>-0.3405049826428241</v>
       </c>
       <c r="F10">
-        <v>0.2753298719199795</v>
+        <v>-0.328420178695199</v>
       </c>
       <c r="G10">
-        <v>0.5579061263244192</v>
+        <v>-0.9208347980542861</v>
       </c>
       <c r="H10">
-        <v>0.6296024406275359</v>
+        <v>-0.5395270519696493</v>
       </c>
       <c r="I10">
-        <v>-0.03647797083270399</v>
+        <v>-0.1356322333995322</v>
       </c>
       <c r="J10">
-        <v>0.7613749195572812</v>
+        <v>-0.8185010300748822</v>
       </c>
       <c r="K10">
-        <v>-0.008830713511278454</v>
+        <v>-0.625907596838349</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -765,34 +900,34 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.6957769317995217</v>
+        <v>-0.04777809579343989</v>
       </c>
       <c r="C11">
-        <v>0.01658649817700109</v>
+        <v>-0.2752927090289034</v>
       </c>
       <c r="D11">
-        <v>0.2662535418610028</v>
+        <v>-0.3149389108386522</v>
       </c>
       <c r="E11">
-        <v>0.5437439136820594</v>
+        <v>-0.8851063066391184</v>
       </c>
       <c r="F11">
-        <v>0.616896026136783</v>
+        <v>-0.5135992895804291</v>
       </c>
       <c r="G11">
-        <v>-0.04959606459294219</v>
+        <v>-0.105414778813295</v>
       </c>
       <c r="H11">
-        <v>0.748373731426342</v>
+        <v>-0.7901641577592933</v>
       </c>
       <c r="I11">
-        <v>-0.02186505233946445</v>
+        <v>-0.5967467151094659</v>
       </c>
       <c r="J11">
-        <v>-0.04242681654311065</v>
+        <v>0.09419485801001448</v>
       </c>
       <c r="K11">
-        <v>-0.2335672477506408</v>
+        <v>-0.05652622151578462</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -800,34 +935,34 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0.2353511052559822</v>
+        <v>-0.3896581188595205</v>
       </c>
       <c r="C12">
-        <v>0.527206039229255</v>
+        <v>-0.8415525079149149</v>
       </c>
       <c r="D12">
-        <v>0.5960284107637978</v>
+        <v>-0.5201598976254139</v>
       </c>
       <c r="E12">
-        <v>-0.0689833903813758</v>
+        <v>-0.09188664072188124</v>
       </c>
       <c r="F12">
-        <v>0.7284823990550992</v>
+        <v>-0.7847781588222611</v>
       </c>
       <c r="G12">
-        <v>-0.04158265174223819</v>
+        <v>-0.5880738956299554</v>
       </c>
       <c r="H12">
-        <v>-0.06220482751665191</v>
+        <v>0.1015418490710225</v>
       </c>
       <c r="I12">
-        <v>-0.2533240910477031</v>
+        <v>-0.04864531056187743</v>
       </c>
       <c r="J12">
-        <v>0.05783356887774294</v>
+        <v>0.2020501357169112</v>
       </c>
       <c r="K12">
-        <v>-0.2948587848591548</v>
+        <v>0.4057234818793743</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -835,34 +970,34 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0.7510039780140518</v>
+        <v>-0.711907493163664</v>
       </c>
       <c r="C13">
-        <v>-0.1398897100676808</v>
+        <v>0.05587187723561299</v>
       </c>
       <c r="D13">
-        <v>0.7364983942482417</v>
+        <v>-0.8069527408733164</v>
       </c>
       <c r="E13">
-        <v>-0.0610542634878396</v>
+        <v>-0.5369700692530204</v>
       </c>
       <c r="F13">
-        <v>-0.07210102871021312</v>
+        <v>0.119510758063417</v>
       </c>
       <c r="G13">
-        <v>-0.2665559144184727</v>
+        <v>-0.0159355221903888</v>
       </c>
       <c r="H13">
-        <v>0.04576372980376414</v>
+        <v>0.2281696789784066</v>
       </c>
       <c r="I13">
-        <v>-0.3073334118106539</v>
+        <v>0.4347833621423144</v>
       </c>
       <c r="J13">
-        <v>-0.2884936900025931</v>
+        <v>-0.1021873461060923</v>
       </c>
       <c r="K13">
-        <v>-0.8837876346620951</v>
+        <v>0.9227463024967298</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -870,34 +1005,34 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>0.6427645378436428</v>
+        <v>-0.715471075994444</v>
       </c>
       <c r="C14">
-        <v>-0.05647772693377046</v>
+        <v>-0.5540225521666697</v>
       </c>
       <c r="D14">
-        <v>-0.1040253394202045</v>
+        <v>0.142812332903068</v>
       </c>
       <c r="E14">
-        <v>-0.2844674360291291</v>
+        <v>-0.0127399320948085</v>
       </c>
       <c r="F14">
-        <v>0.0224988476484983</v>
+        <v>0.2401113212866347</v>
       </c>
       <c r="G14">
-        <v>-0.3285442383217824</v>
+        <v>0.4426727929855141</v>
       </c>
       <c r="H14">
-        <v>-0.310494126093925</v>
+        <v>-0.09246976402408841</v>
       </c>
       <c r="I14">
-        <v>-0.9054838453210653</v>
+        <v>0.9316272250050039</v>
       </c>
       <c r="J14">
-        <v>-0.5230702881002114</v>
+        <v>-0.1777298649641946</v>
       </c>
       <c r="K14">
-        <v>-0.1196507114953632</v>
+        <v>0.2076169705229901</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -905,34 +1040,34 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>-0.1790547879411148</v>
+        <v>0.2861178848714656</v>
       </c>
       <c r="C15">
-        <v>-0.2789967616158365</v>
+        <v>0.1435895975460056</v>
       </c>
       <c r="D15">
-        <v>-0.00346395601340499</v>
+        <v>0.2988979126909477</v>
       </c>
       <c r="E15">
-        <v>-0.3405049826428241</v>
+        <v>0.5169887001878504</v>
       </c>
       <c r="F15">
-        <v>-0.328420178695199</v>
+        <v>-0.042863518621018</v>
       </c>
       <c r="G15">
-        <v>-0.9208347980542861</v>
+        <v>0.9880459508016901</v>
       </c>
       <c r="H15">
-        <v>-0.5395270519696493</v>
+        <v>-0.1279468941364469</v>
       </c>
       <c r="I15">
-        <v>-0.1356322333995322</v>
+        <v>0.2598487806885517</v>
       </c>
       <c r="J15">
-        <v>-0.8185010300748822</v>
+        <v>-1.170060574414298</v>
       </c>
       <c r="K15">
-        <v>-0.625907596838349</v>
+        <v>0.7588117208169146</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -940,34 +1075,34 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>-0.04777809579343989</v>
+        <v>0.2395598447817493</v>
       </c>
       <c r="C16">
-        <v>-0.2752927090289034</v>
+        <v>0.468698597786164</v>
       </c>
       <c r="D16">
-        <v>-0.3149389108386522</v>
+        <v>-0.0719357893381119</v>
       </c>
       <c r="E16">
-        <v>-0.8851063066391184</v>
+        <v>0.9571159629687993</v>
       </c>
       <c r="F16">
-        <v>-0.5135992895804291</v>
+        <v>-0.1537475774625422</v>
       </c>
       <c r="G16">
-        <v>-0.105414778813295</v>
+        <v>0.2325844077109268</v>
       </c>
       <c r="H16">
-        <v>-0.7901641577592933</v>
+        <v>-1.195826902419048</v>
       </c>
       <c r="I16">
-        <v>-0.5967467151094659</v>
+        <v>0.7324362977394565</v>
       </c>
       <c r="J16">
-        <v>0.09419485801001448</v>
+        <v>-0.06993371517648406</v>
       </c>
       <c r="K16">
-        <v>-0.05652622151578462</v>
+        <v>-0.3224854345934906</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -975,34 +1110,34 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>-0.3896581188595205</v>
+        <v>-0.0898164164197815</v>
       </c>
       <c r="C17">
-        <v>-0.8415525079149149</v>
+        <v>0.8656938433590053</v>
       </c>
       <c r="D17">
-        <v>-0.5201598976254139</v>
+        <v>-0.1588130439863053</v>
       </c>
       <c r="E17">
-        <v>-0.09188664072188124</v>
+        <v>0.2080865632148783</v>
       </c>
       <c r="F17">
-        <v>-0.7847781588222611</v>
+        <v>-1.203402374939987</v>
       </c>
       <c r="G17">
-        <v>-0.5880738956299554</v>
+        <v>0.7201486729099387</v>
       </c>
       <c r="H17">
-        <v>0.1015418490710225</v>
+        <v>-0.07884053769499011</v>
       </c>
       <c r="I17">
-        <v>-0.04864531056187743</v>
+        <v>-0.3324829905486612</v>
       </c>
       <c r="J17">
-        <v>0.2020501357169112</v>
+        <v>0.073605765732498</v>
       </c>
       <c r="K17">
-        <v>0.4057234818793743</v>
+        <v>0.2228326148937978</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1010,34 +1145,34 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>-0.711907493163664</v>
+        <v>0.9852499698660769</v>
       </c>
       <c r="C18">
-        <v>0.05587187723561299</v>
+        <v>-0.114288001203455</v>
       </c>
       <c r="D18">
-        <v>-0.8069527408733164</v>
+        <v>0.2611873006669875</v>
       </c>
       <c r="E18">
-        <v>-0.5369700692530204</v>
+        <v>-1.163504846724071</v>
       </c>
       <c r="F18">
-        <v>0.119510758063417</v>
+        <v>0.7619463776408213</v>
       </c>
       <c r="G18">
-        <v>-0.0159355221903888</v>
+        <v>-0.03928292493988994</v>
       </c>
       <c r="H18">
-        <v>0.2281696789784066</v>
+        <v>-0.2925866251608387</v>
       </c>
       <c r="I18">
-        <v>0.4347833621423144</v>
+        <v>0.1131545501537785</v>
       </c>
       <c r="J18">
-        <v>-0.1021873461060923</v>
+        <v>0.2624212948921557</v>
       </c>
       <c r="K18">
-        <v>0.9227463024967298</v>
+        <v>-0.987668849525391</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1045,34 +1180,34 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>-0.715471075994444</v>
+        <v>-0.04091809052827411</v>
       </c>
       <c r="C19">
-        <v>-0.5540225521666697</v>
+        <v>0.01352736490037898</v>
       </c>
       <c r="D19">
-        <v>0.142812332903068</v>
+        <v>-1.141369099143748</v>
       </c>
       <c r="E19">
-        <v>-0.0127399320948085</v>
+        <v>0.6828668688215255</v>
       </c>
       <c r="F19">
-        <v>0.2401113212866347</v>
+        <v>-0.0474215272572675</v>
       </c>
       <c r="G19">
-        <v>0.4426727929855141</v>
+        <v>-0.3310478258932384</v>
       </c>
       <c r="H19">
-        <v>-0.09246976402408841</v>
+        <v>0.09376384252192854</v>
       </c>
       <c r="I19">
-        <v>0.9316272250050039</v>
+        <v>0.2341919641109225</v>
       </c>
       <c r="J19">
-        <v>-0.1777298649641946</v>
+        <v>-1.010694340644612</v>
       </c>
       <c r="K19">
-        <v>0.2076169705229901</v>
+        <v>-0.3233911067131494</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1080,34 +1215,34 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>0.2861178848714656</v>
+        <v>0.1098463145211537</v>
       </c>
       <c r="C20">
-        <v>0.1435895975460056</v>
+        <v>-1.123833882082426</v>
       </c>
       <c r="D20">
-        <v>0.2988979126909477</v>
+        <v>0.728227177188921</v>
       </c>
       <c r="E20">
-        <v>0.5169887001878504</v>
+        <v>-0.02788772587723054</v>
       </c>
       <c r="F20">
-        <v>-0.042863518621018</v>
+        <v>-0.3005402315541388</v>
       </c>
       <c r="G20">
-        <v>0.9880459508016901</v>
+        <v>0.1160931901559567</v>
       </c>
       <c r="H20">
-        <v>-0.1279468941364469</v>
+        <v>0.2603812595973866</v>
       </c>
       <c r="I20">
-        <v>0.2598487806885517</v>
+        <v>-0.9870437710926905</v>
       </c>
       <c r="J20">
-        <v>-1.170060574414298</v>
+        <v>-0.2984680554315806</v>
       </c>
       <c r="K20">
-        <v>0.7588117208169146</v>
+        <v>0.9687827816790578</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1115,34 +1250,34 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>0.2395598447817493</v>
+        <v>-1.066862891085386</v>
       </c>
       <c r="C21">
-        <v>0.468698597786164</v>
+        <v>0.6984396658929354</v>
       </c>
       <c r="D21">
-        <v>-0.0719357893381119</v>
+        <v>-0.01342375739168344</v>
       </c>
       <c r="E21">
-        <v>0.9571159629687993</v>
+        <v>-0.3091267922036044</v>
       </c>
       <c r="F21">
-        <v>-0.1537475774625422</v>
+        <v>0.1192585974508735</v>
       </c>
       <c r="G21">
-        <v>0.2325844077109268</v>
+        <v>0.257440279876942</v>
       </c>
       <c r="H21">
-        <v>-1.195826902419048</v>
+        <v>-0.9868663845915663</v>
       </c>
       <c r="I21">
-        <v>0.7324362977394565</v>
+        <v>-0.2999058321113467</v>
       </c>
       <c r="J21">
-        <v>-0.06993371517648406</v>
+        <v>0.9681712568874729</v>
       </c>
       <c r="K21">
-        <v>-0.3224854345934906</v>
+        <v>0.2611433047666349</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1150,34 +1285,34 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>-0.0898164164197815</v>
+        <v>0.3719823377594237</v>
       </c>
       <c r="C22">
-        <v>0.8656938433590053</v>
+        <v>0.3181082538094251</v>
       </c>
       <c r="D22">
-        <v>-0.1588130439863053</v>
+        <v>-0.4441430464678812</v>
       </c>
       <c r="E22">
-        <v>0.2080865632148783</v>
+        <v>0.2345163700045597</v>
       </c>
       <c r="F22">
-        <v>-1.203402374939987</v>
+        <v>0.2117740460614933</v>
       </c>
       <c r="G22">
-        <v>0.7201486729099387</v>
+        <v>-0.9412581118080072</v>
       </c>
       <c r="H22">
-        <v>-0.07884053769499011</v>
+        <v>-0.3104560289473738</v>
       </c>
       <c r="I22">
-        <v>-0.3324829905486612</v>
+        <v>0.9902523328917338</v>
       </c>
       <c r="J22">
-        <v>0.073605765732498</v>
+        <v>0.2635562887396546</v>
       </c>
       <c r="K22">
-        <v>0.2228326148937978</v>
+        <v>-1.334168969284273</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1185,34 +1320,34 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>0.9852499698660769</v>
+        <v>0.2838895965402797</v>
       </c>
       <c r="C23">
-        <v>-0.114288001203455</v>
+        <v>-0.5655432164023318</v>
       </c>
       <c r="D23">
-        <v>0.2611873006669875</v>
+        <v>0.218852960337336</v>
       </c>
       <c r="E23">
-        <v>-1.163504846724071</v>
+        <v>0.1505636282710604</v>
       </c>
       <c r="F23">
-        <v>0.7619463776408213</v>
+        <v>-0.9656210305302095</v>
       </c>
       <c r="G23">
-        <v>-0.03928292493988994</v>
+        <v>-0.3543765028195302</v>
       </c>
       <c r="H23">
-        <v>-0.2925866251608387</v>
+        <v>0.9598787783384797</v>
       </c>
       <c r="I23">
-        <v>0.1131545501537785</v>
+        <v>0.2253362183847423</v>
       </c>
       <c r="J23">
-        <v>0.2624212948921557</v>
+        <v>-1.367299026220144</v>
       </c>
       <c r="K23">
-        <v>-0.987668849525391</v>
+        <v>2.65071910388544</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1220,34 +1355,34 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>-0.04091809052827411</v>
+        <v>-0.2231572860197372</v>
       </c>
       <c r="C24">
-        <v>0.01352736490037898</v>
+        <v>0.1231959564433381</v>
       </c>
       <c r="D24">
-        <v>-1.141369099143748</v>
+        <v>0.2825204623645277</v>
       </c>
       <c r="E24">
-        <v>0.6828668688215255</v>
+        <v>-0.9799883280642829</v>
       </c>
       <c r="F24">
-        <v>-0.0474215272572675</v>
+        <v>-0.2873027370019273</v>
       </c>
       <c r="G24">
-        <v>-0.3310478258932384</v>
+        <v>0.9766416446376436</v>
       </c>
       <c r="H24">
-        <v>0.09376384252192854</v>
+        <v>0.2711047282120637</v>
       </c>
       <c r="I24">
-        <v>0.2341919641109225</v>
+        <v>-1.339122737439426</v>
       </c>
       <c r="J24">
-        <v>-1.010694340644612</v>
+        <v>2.689221236970791</v>
       </c>
       <c r="K24">
-        <v>0.08689909155870273</v>
+        <v>-0.487497973259824</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1255,34 +1390,34 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>0.1098463145211537</v>
+        <v>0.1299881254406757</v>
       </c>
       <c r="C25">
-        <v>-1.123833882082426</v>
+        <v>0.3510122848120198</v>
       </c>
       <c r="D25">
-        <v>0.728227177188921</v>
+        <v>-0.9708456923457851</v>
       </c>
       <c r="E25">
-        <v>-0.02788772587723054</v>
+        <v>-0.2570144701133305</v>
       </c>
       <c r="F25">
-        <v>-0.3005402315541388</v>
+        <v>0.9903686057537771</v>
       </c>
       <c r="G25">
-        <v>0.1160931901559567</v>
+        <v>0.2916281552542653</v>
       </c>
       <c r="H25">
-        <v>0.2603812595973866</v>
+        <v>-1.323278626177763</v>
       </c>
       <c r="I25">
-        <v>-0.9870437710926905</v>
+        <v>2.707170528221464</v>
       </c>
       <c r="J25">
-        <v>0.1118221428402715</v>
+        <v>-0.47088214461462</v>
       </c>
       <c r="K25">
-        <v>-0.2374930061195309</v>
+        <v>0.4194340568517292</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1290,34 +1425,34 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>-1.066862891085386</v>
+        <v>0.5112078453714424</v>
       </c>
       <c r="C26">
-        <v>0.6984396658929354</v>
+        <v>-1.00991950446504</v>
       </c>
       <c r="D26">
-        <v>-0.01342375739168344</v>
+        <v>-0.1992852761421212</v>
       </c>
       <c r="E26">
-        <v>-0.3091267922036044</v>
+        <v>0.9853903560000629</v>
       </c>
       <c r="F26">
-        <v>0.1192585974508735</v>
+        <v>0.3185345590751034</v>
       </c>
       <c r="G26">
-        <v>0.257440279876942</v>
+        <v>-1.316179945215458</v>
       </c>
       <c r="H26">
-        <v>-0.9868663845915663</v>
+        <v>2.724671448067516</v>
       </c>
       <c r="I26">
-        <v>0.1103843661605054</v>
+        <v>-0.4596543554409019</v>
       </c>
       <c r="J26">
-        <v>-0.2381045309111159</v>
+        <v>0.4340312843173362</v>
       </c>
       <c r="K26">
-        <v>-0.2388652402803604</v>
+        <v>-1.843996665437504</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1325,34 +1460,34 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>0.3719823377594237</v>
+        <v>-1.018569474547945</v>
       </c>
       <c r="C27">
-        <v>0.3181082538094251</v>
+        <v>-0.3305773344420016</v>
       </c>
       <c r="D27">
-        <v>-0.4441430464678812</v>
+        <v>0.9881553828615097</v>
       </c>
       <c r="E27">
-        <v>0.2345163700045597</v>
+        <v>0.2759792863012362</v>
       </c>
       <c r="F27">
-        <v>0.2117740460614933</v>
+        <v>-1.321355702553997</v>
       </c>
       <c r="G27">
-        <v>-0.9412581118080072</v>
+        <v>2.704184354970929</v>
       </c>
       <c r="H27">
-        <v>0.09983416932447831</v>
+        <v>-0.4693696443483915</v>
       </c>
       <c r="I27">
-        <v>-0.216023454906855</v>
+        <v>0.4193570889915004</v>
       </c>
       <c r="J27">
-        <v>-0.2364522563073407</v>
+        <v>-1.855493596591191</v>
       </c>
       <c r="K27">
-        <v>-0.3245171229144809</v>
+        <v>0.4883062772797765</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1360,34 +1495,34 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>0.2838895965402797</v>
+        <v>-0.3236516861302473</v>
       </c>
       <c r="C28">
-        <v>-0.5655432164023318</v>
+        <v>1.23579550610705</v>
       </c>
       <c r="D28">
-        <v>0.218852960337336</v>
+        <v>0.2702063622595881</v>
       </c>
       <c r="E28">
-        <v>0.1505636282710604</v>
+        <v>-1.246270677171041</v>
       </c>
       <c r="F28">
-        <v>-0.9656210305302095</v>
+        <v>2.713635122134597</v>
       </c>
       <c r="G28">
-        <v>0.05591369545232189</v>
+        <v>-0.4348010507854997</v>
       </c>
       <c r="H28">
-        <v>-0.2463970094601091</v>
+        <v>0.4364886461882849</v>
       </c>
       <c r="I28">
-        <v>-0.2746723266622531</v>
+        <v>-1.830868820328082</v>
       </c>
       <c r="J28">
-        <v>-0.357647179850352</v>
+        <v>0.5082125912074764</v>
       </c>
       <c r="K28">
-        <v>1.232209926555985</v>
+        <v>-0.1127661288793951</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1395,34 +1530,34 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>-0.2231572860197372</v>
+        <v>1.433867018030788</v>
       </c>
       <c r="C29">
-        <v>0.1231959564433381</v>
+        <v>0.3850619295142679</v>
       </c>
       <c r="D29">
-        <v>0.2825204623645277</v>
+        <v>-1.17349608861997</v>
       </c>
       <c r="E29">
-        <v>-0.9799883280642829</v>
+        <v>2.773598536326969</v>
       </c>
       <c r="F29">
-        <v>0.1229874612699248</v>
+        <v>-0.388240831125948</v>
       </c>
       <c r="G29">
-        <v>-0.2296341431609453</v>
+        <v>0.4821115612047641</v>
       </c>
       <c r="H29">
-        <v>-0.2289038168349317</v>
+        <v>-1.789405715558702</v>
       </c>
       <c r="I29">
-        <v>-0.3294708910696342</v>
+        <v>0.5500714367168661</v>
       </c>
       <c r="J29">
-        <v>1.270712059641336</v>
+        <v>-0.07217877264919559</v>
       </c>
       <c r="K29">
-        <v>-0.02941231856134496</v>
+        <v>5.437433166943523</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1430,34 +1565,34 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>0.1299881254406757</v>
+        <v>0.4003656079914559</v>
       </c>
       <c r="C30">
-        <v>0.3510122848120198</v>
+        <v>-1.389624662185985</v>
       </c>
       <c r="D30">
-        <v>-0.9708456923457851</v>
+        <v>2.734293356298489</v>
       </c>
       <c r="E30">
-        <v>0.1532757281585216</v>
+        <v>-0.4641618981671484</v>
       </c>
       <c r="F30">
-        <v>-0.2159071820448117</v>
+        <v>0.434348057744564</v>
       </c>
       <c r="G30">
-        <v>-0.20838038979273</v>
+        <v>-1.843672710303729</v>
       </c>
       <c r="H30">
-        <v>-0.3136267798079714</v>
+        <v>0.5012697116487028</v>
       </c>
       <c r="I30">
-        <v>1.288661350892009</v>
+        <v>-0.1223492658140356</v>
       </c>
       <c r="J30">
-        <v>-0.01279648991614096</v>
+        <v>5.388453503085588</v>
       </c>
       <c r="K30">
-        <v>0.4878853746501493</v>
+        <v>0.423607095028068</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1465,34 +1600,34 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>0.5112078453714424</v>
+        <v>-1.403133675467197</v>
       </c>
       <c r="C31">
-        <v>-1.00991950446504</v>
+        <v>2.627669604148651</v>
       </c>
       <c r="D31">
-        <v>0.2110049221297309</v>
+        <v>-0.4943372086119842</v>
       </c>
       <c r="E31">
-        <v>-0.2208854317985259</v>
+        <v>0.3918318976362365</v>
       </c>
       <c r="F31">
-        <v>-0.1814739859718919</v>
+        <v>-1.869050245838207</v>
       </c>
       <c r="G31">
-        <v>-0.3065280988456661</v>
+        <v>0.4729902484114235</v>
       </c>
       <c r="H31">
-        <v>1.306162270738061</v>
+        <v>-0.1463095734416884</v>
       </c>
       <c r="I31">
-        <v>-0.001568700742422879</v>
+        <v>5.36355559389261</v>
       </c>
       <c r="J31">
-        <v>0.5024826021157562</v>
+        <v>0.3998793582694831</v>
       </c>
       <c r="K31">
-        <v>8.297475804108778E-05</v>
+        <v>0.253830841841385</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1500,34 +1635,34 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>-1.018569474547945</v>
+        <v>2.229502938280113</v>
       </c>
       <c r="C32">
-        <v>0.07971286382985049</v>
+        <v>-0.1372486930736768</v>
       </c>
       <c r="D32">
-        <v>-0.2181204049370791</v>
+        <v>0.2627034627000736</v>
       </c>
       <c r="E32">
-        <v>-0.2240292587457591</v>
+        <v>-1.769066054796998</v>
       </c>
       <c r="F32">
-        <v>-0.3117038561842055</v>
+        <v>0.437332637549959</v>
       </c>
       <c r="G32">
-        <v>1.285675177641474</v>
+        <v>-0.1144307218965744</v>
       </c>
       <c r="H32">
-        <v>-0.0112839896499124</v>
+        <v>5.357005422756773</v>
       </c>
       <c r="I32">
-        <v>0.4878084067899205</v>
+        <v>0.4129957240487797</v>
       </c>
       <c r="J32">
-        <v>-0.01141395639564652</v>
+        <v>0.255982244409599</v>
       </c>
       <c r="K32">
-        <v>-0.2116993103715848</v>
+        <v>0.1378915784388665</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1535,34 +1670,34 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>0.3900559250030717</v>
+        <v>1.483813203021062</v>
       </c>
       <c r="C33">
-        <v>-0.2455023352337732</v>
+        <v>-0.9057387841504025</v>
       </c>
       <c r="D33">
-        <v>-0.1295192078795426</v>
+        <v>-0.8909424791733991</v>
       </c>
       <c r="E33">
-        <v>-0.3051129734588064</v>
+        <v>-0.1491763644043096</v>
       </c>
       <c r="F33">
-        <v>1.328441940012847</v>
+        <v>0.3480167615733719</v>
       </c>
       <c r="G33">
-        <v>0.008145099769599762</v>
+        <v>5.075028401607405</v>
       </c>
       <c r="H33">
-        <v>0.517695351674768</v>
+        <v>0.6583138988163013</v>
       </c>
       <c r="I33">
-        <v>0.01219153719246524</v>
+        <v>0.1292450999032451</v>
       </c>
       <c r="J33">
-        <v>-0.185117638844768</v>
+        <v>0.2732273855070802</v>
       </c>
       <c r="K33">
-        <v>1.51337979088989</v>
+        <v>0.8599182958754334</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1570,34 +1705,34 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>-0.1200726774069856</v>
+        <v>0.6301121061700101</v>
       </c>
       <c r="C34">
-        <v>-0.1277775795296492</v>
+        <v>-2.041808590472602</v>
       </c>
       <c r="D34">
-        <v>-0.252051050511254</v>
+        <v>0.5792082881688931</v>
       </c>
       <c r="E34">
-        <v>1.347308750522735</v>
+        <v>-0.1527776740318662</v>
       </c>
       <c r="F34">
-        <v>0.04236631762159682</v>
+        <v>5.382684621308877</v>
       </c>
       <c r="G34">
-        <v>0.5424259916097285</v>
+        <v>0.4189192379824404</v>
       </c>
       <c r="H34">
-        <v>0.04141230886722225</v>
+        <v>0.2689115960926841</v>
       </c>
       <c r="I34">
-        <v>-0.1585363719973443</v>
+        <v>0.1472178326497093</v>
       </c>
       <c r="J34">
-        <v>1.541254216060745</v>
+        <v>0.9205791825923889</v>
       </c>
       <c r="K34">
-        <v>1.041272796725292</v>
+        <v>-0.5408299902042537</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1605,31 +1740,34 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>-0.341076234787088</v>
+        <v>-1.669307798946583</v>
       </c>
       <c r="C35">
-        <v>-0.2859442081376655</v>
+        <v>0.3854587428526215</v>
       </c>
       <c r="D35">
-        <v>1.263295458482012</v>
+        <v>-0.1541602790363358</v>
       </c>
       <c r="E35">
-        <v>-0.01594356064383556</v>
+        <v>5.343246706982305</v>
       </c>
       <c r="F35">
-        <v>0.4767754412668078</v>
+        <v>0.3769144233331779</v>
       </c>
       <c r="G35">
-        <v>-0.0203888375770318</v>
+        <v>0.2332000027819419</v>
       </c>
       <c r="H35">
-        <v>-0.2214165048762127</v>
+        <v>0.1082404039994124</v>
       </c>
       <c r="I35">
-        <v>1.47897472016309</v>
+        <v>0.8826528889272403</v>
       </c>
       <c r="J35">
-        <v>0.9788307311484218</v>
+        <v>-0.5789279963257741</v>
+      </c>
+      <c r="K35">
+        <v>0.02137250751855296</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1637,28 +1775,34 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>-0.4221912421170382</v>
+        <v>-0.6309140986097654</v>
       </c>
       <c r="C36">
-        <v>1.371699477426569</v>
+        <v>0.01211666725672966</v>
       </c>
       <c r="D36">
-        <v>-0.05356924819122871</v>
+        <v>5.636487652134086</v>
       </c>
       <c r="E36">
-        <v>0.5078786133240015</v>
+        <v>0.3172850198077578</v>
       </c>
       <c r="F36">
-        <v>-0.0297138239723081</v>
+        <v>0.3106624334940227</v>
       </c>
       <c r="G36">
-        <v>-0.2104677543022083</v>
+        <v>0.2055918196258196</v>
       </c>
       <c r="H36">
-        <v>1.478163792866523</v>
+        <v>0.9377801877213814</v>
       </c>
       <c r="I36">
-        <v>0.9841479476998526</v>
+        <v>-0.5086100350809766</v>
+      </c>
+      <c r="J36">
+        <v>0.09457640210065554</v>
+      </c>
+      <c r="K36">
+        <v>0.1079796879139576</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1666,25 +1810,34 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>1.901723302856564</v>
+        <v>0.09205077189807997</v>
       </c>
       <c r="C37">
-        <v>-0.494583698492596</v>
+        <v>5.318233256585112</v>
       </c>
       <c r="D37">
-        <v>0.734655409465282</v>
+        <v>0.3892755758476747</v>
       </c>
       <c r="E37">
-        <v>-0.2091354898709454</v>
+        <v>0.2672368126912983</v>
       </c>
       <c r="F37">
-        <v>-0.1238694523546355</v>
+        <v>0.1262812544550454</v>
       </c>
       <c r="G37">
-        <v>1.398871998942997</v>
+        <v>0.9053028838287389</v>
       </c>
       <c r="H37">
-        <v>1.011342767500089</v>
+        <v>-0.556177651818119</v>
+      </c>
+      <c r="I37">
+        <v>0.04339359274325999</v>
+      </c>
+      <c r="J37">
+        <v>0.06210275191178732</v>
+      </c>
+      <c r="K37">
+        <v>0.8203917886788428</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1692,22 +1845,34 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>0.3236949011519576</v>
+        <v>5.514739053905264</v>
       </c>
       <c r="C38">
-        <v>0.3172738824180914</v>
+        <v>0.278831191865693</v>
       </c>
       <c r="D38">
-        <v>0.04294381261152125</v>
+        <v>0.2585041404775272</v>
       </c>
       <c r="E38">
-        <v>-0.2127796767058127</v>
+        <v>0.1165223408095204</v>
       </c>
       <c r="F38">
-        <v>1.488522430646387</v>
+        <v>0.8803187655139955</v>
       </c>
       <c r="G38">
-        <v>0.9947379338392972</v>
+        <v>-0.5737385794621452</v>
+      </c>
+      <c r="H38">
+        <v>0.02463540060884567</v>
+      </c>
+      <c r="I38">
+        <v>0.04277452672454191</v>
+      </c>
+      <c r="J38">
+        <v>0.801519184373642</v>
+      </c>
+      <c r="K38">
+        <v>-0.3329149843404818</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1715,19 +1880,31 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>0.7041586444626869</v>
+        <v>1.991234088617342</v>
       </c>
       <c r="C39">
-        <v>-0.1173156505086942</v>
+        <v>-0.8861417820765269</v>
       </c>
       <c r="D39">
-        <v>-0.1938989527148965</v>
+        <v>0.5153937508311346</v>
       </c>
       <c r="E39">
-        <v>1.463196561285264</v>
+        <v>0.5428035642654432</v>
       </c>
       <c r="F39">
-        <v>0.9770913270335519</v>
+        <v>-0.5359964885685282</v>
+      </c>
+      <c r="G39">
+        <v>-0.1286524480978956</v>
+      </c>
+      <c r="H39">
+        <v>-0.01244006946398929</v>
+      </c>
+      <c r="I39">
+        <v>0.6963948374914991</v>
+      </c>
+      <c r="J39">
+        <v>-0.4128123635768226</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1735,16 +1912,28 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>-0.008155047663567117</v>
+        <v>0.2865876688361451</v>
       </c>
       <c r="C40">
-        <v>-0.2390622826480059</v>
+        <v>0.02148106169069119</v>
       </c>
       <c r="D40">
-        <v>1.475543944287262</v>
+        <v>0.840251699968507</v>
       </c>
       <c r="E40">
-        <v>0.9714274071941278</v>
+        <v>-0.6353915145147558</v>
+      </c>
+      <c r="F40">
+        <v>-0.03063005329785234</v>
+      </c>
+      <c r="G40">
+        <v>-0.0136796781661136</v>
+      </c>
+      <c r="H40">
+        <v>0.7451197094992175</v>
+      </c>
+      <c r="I40">
+        <v>-0.3893063319162763</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1752,13 +1941,25 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>-0.5321009284868214</v>
+        <v>0.114676486816386</v>
       </c>
       <c r="C41">
-        <v>1.667094431530698</v>
+        <v>0.8123799661550295</v>
       </c>
       <c r="D41">
-        <v>1.061137549770588</v>
+        <v>-0.6255229278538827</v>
+      </c>
+      <c r="E41">
+        <v>-0.03252244113329811</v>
+      </c>
+      <c r="F41">
+        <v>-0.0119065981810087</v>
+      </c>
+      <c r="G41">
+        <v>0.7457502585235727</v>
+      </c>
+      <c r="H41">
+        <v>-0.3883196112372314</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1766,10 +1967,22 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>2.213367536971829</v>
+        <v>0.8396639105745598</v>
       </c>
       <c r="C42">
-        <v>0.8258125681796842</v>
+        <v>-0.6046786872846559</v>
+      </c>
+      <c r="D42">
+        <v>-0.01389933539135751</v>
+      </c>
+      <c r="E42">
+        <v>0.006894960533585737</v>
+      </c>
+      <c r="F42">
+        <v>0.7648988974040716</v>
+      </c>
+      <c r="G42">
+        <v>-0.3693926717937049</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1777,57 +1990,74 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>1.365247879038329</v>
+        <v>-0.2936977875754246</v>
+      </c>
+      <c r="C43">
+        <v>-0.03179669363609444</v>
+      </c>
+      <c r="D43">
+        <v>0.0003084059447504006</v>
+      </c>
+      <c r="E43">
+        <v>0.7861930468036031</v>
+      </c>
+      <c r="F43">
+        <v>-0.3597094934037506</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="B44">
+        <v>-0.1621310268943836</v>
+      </c>
+      <c r="C44">
+        <v>0.03719088038180501</v>
+      </c>
+      <c r="D44">
+        <v>0.7964962398103828</v>
+      </c>
+      <c r="E44">
+        <v>-0.3544474920656217</v>
+      </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="B45">
+        <v>-0.06935382129964285</v>
+      </c>
+      <c r="C45">
+        <v>0.846703623231424</v>
+      </c>
+      <c r="D45">
+        <v>-0.3381175193413734</v>
+      </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="B46">
+        <v>0.7970627950356592</v>
+      </c>
+      <c r="C46">
+        <v>-0.2748741858704421</v>
+      </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="B47">
+        <v>-0.02057224245546885</v>
+      </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/PUBCON/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/PUBCON/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
@@ -605,15 +605,6 @@
       <c r="H2">
         <v>-0.1364573362549492</v>
       </c>
-      <c r="I2">
-        <v>0.2476115355180475</v>
-      </c>
-      <c r="J2">
-        <v>0.6905836455451707</v>
-      </c>
-      <c r="K2">
-        <v>0.06919279488043789</v>
-      </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
@@ -634,21 +625,6 @@
       <c r="F3">
         <v>-0.2277908539725258</v>
       </c>
-      <c r="G3">
-        <v>0.2537315762846798</v>
-      </c>
-      <c r="H3">
-        <v>0.6376720488874996</v>
-      </c>
-      <c r="I3">
-        <v>0.05204047245414106</v>
-      </c>
-      <c r="J3">
-        <v>0.2622834036505531</v>
-      </c>
-      <c r="K3">
-        <v>0.5578063902554287</v>
-      </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
@@ -675,15 +651,6 @@
       <c r="H4">
         <v>0.2635776847861926</v>
       </c>
-      <c r="I4">
-        <v>0.5604852311580379</v>
-      </c>
-      <c r="J4">
-        <v>0.6244874396223087</v>
-      </c>
-      <c r="K4">
-        <v>-0.03747351369874519</v>
-      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
@@ -704,21 +671,6 @@
       <c r="F5">
         <v>0.2753298719199795</v>
       </c>
-      <c r="G5">
-        <v>0.5579061263244192</v>
-      </c>
-      <c r="H5">
-        <v>0.6296024406275359</v>
-      </c>
-      <c r="I5">
-        <v>-0.03647797083270399</v>
-      </c>
-      <c r="J5">
-        <v>0.7613749195572812</v>
-      </c>
-      <c r="K5">
-        <v>-0.008830713511278454</v>
-      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
@@ -745,15 +697,6 @@
       <c r="H6">
         <v>0.748373731426342</v>
       </c>
-      <c r="I6">
-        <v>-0.02186505233946445</v>
-      </c>
-      <c r="J6">
-        <v>-0.04242681654311065</v>
-      </c>
-      <c r="K6">
-        <v>-0.2335672477506408</v>
-      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
@@ -774,21 +717,6 @@
       <c r="F7">
         <v>0.7284823990550992</v>
       </c>
-      <c r="G7">
-        <v>-0.04158265174223819</v>
-      </c>
-      <c r="H7">
-        <v>-0.06220482751665191</v>
-      </c>
-      <c r="I7">
-        <v>-0.2533240910477031</v>
-      </c>
-      <c r="J7">
-        <v>0.05783356887774294</v>
-      </c>
-      <c r="K7">
-        <v>-0.2948587848591548</v>
-      </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
@@ -815,15 +743,6 @@
       <c r="H8">
         <v>0.04576372980376414</v>
       </c>
-      <c r="I8">
-        <v>-0.3073334118106539</v>
-      </c>
-      <c r="J8">
-        <v>-0.2884936900025931</v>
-      </c>
-      <c r="K8">
-        <v>-0.8837876346620951</v>
-      </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
@@ -844,21 +763,6 @@
       <c r="F9">
         <v>0.0224988476484983</v>
       </c>
-      <c r="G9">
-        <v>-0.3285442383217824</v>
-      </c>
-      <c r="H9">
-        <v>-0.310494126093925</v>
-      </c>
-      <c r="I9">
-        <v>-0.9054838453210653</v>
-      </c>
-      <c r="J9">
-        <v>-0.5230702881002114</v>
-      </c>
-      <c r="K9">
-        <v>-0.1196507114953632</v>
-      </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
@@ -885,15 +789,6 @@
       <c r="H10">
         <v>-0.5395270519696493</v>
       </c>
-      <c r="I10">
-        <v>-0.1356322333995322</v>
-      </c>
-      <c r="J10">
-        <v>-0.8185010300748822</v>
-      </c>
-      <c r="K10">
-        <v>-0.625907596838349</v>
-      </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
@@ -914,21 +809,6 @@
       <c r="F11">
         <v>-0.5135992895804291</v>
       </c>
-      <c r="G11">
-        <v>-0.105414778813295</v>
-      </c>
-      <c r="H11">
-        <v>-0.7901641577592933</v>
-      </c>
-      <c r="I11">
-        <v>-0.5967467151094659</v>
-      </c>
-      <c r="J11">
-        <v>0.09419485801001448</v>
-      </c>
-      <c r="K11">
-        <v>-0.05652622151578462</v>
-      </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
@@ -955,15 +835,6 @@
       <c r="H12">
         <v>0.1015418490710225</v>
       </c>
-      <c r="I12">
-        <v>-0.04864531056187743</v>
-      </c>
-      <c r="J12">
-        <v>0.2020501357169112</v>
-      </c>
-      <c r="K12">
-        <v>0.4057234818793743</v>
-      </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
@@ -996,9 +867,6 @@
       <c r="J13">
         <v>-0.1021873461060923</v>
       </c>
-      <c r="K13">
-        <v>0.9227463024967298</v>
-      </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
@@ -1025,15 +893,6 @@
       <c r="H14">
         <v>-0.09246976402408841</v>
       </c>
-      <c r="I14">
-        <v>0.9316272250050039</v>
-      </c>
-      <c r="J14">
-        <v>-0.1777298649641946</v>
-      </c>
-      <c r="K14">
-        <v>0.2076169705229901</v>
-      </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
@@ -1066,9 +925,6 @@
       <c r="J15">
         <v>-1.170060574414298</v>
       </c>
-      <c r="K15">
-        <v>0.7588117208169146</v>
-      </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
@@ -1095,15 +951,6 @@
       <c r="H16">
         <v>-1.195826902419048</v>
       </c>
-      <c r="I16">
-        <v>0.7324362977394565</v>
-      </c>
-      <c r="J16">
-        <v>-0.06993371517648406</v>
-      </c>
-      <c r="K16">
-        <v>-0.3224854345934906</v>
-      </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
@@ -1136,9 +983,6 @@
       <c r="J17">
         <v>0.073605765732498</v>
       </c>
-      <c r="K17">
-        <v>0.2228326148937978</v>
-      </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
@@ -1168,12 +1012,6 @@
       <c r="I18">
         <v>0.1131545501537785</v>
       </c>
-      <c r="J18">
-        <v>0.2624212948921557</v>
-      </c>
-      <c r="K18">
-        <v>-0.987668849525391</v>
-      </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
@@ -1200,15 +1038,6 @@
       <c r="H19">
         <v>0.09376384252192854</v>
       </c>
-      <c r="I19">
-        <v>0.2341919641109225</v>
-      </c>
-      <c r="J19">
-        <v>-1.010694340644612</v>
-      </c>
-      <c r="K19">
-        <v>-0.3233911067131494</v>
-      </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
@@ -1276,9 +1105,6 @@
       <c r="J21">
         <v>0.9681712568874729</v>
       </c>
-      <c r="K21">
-        <v>0.2611433047666349</v>
-      </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
@@ -1308,12 +1134,6 @@
       <c r="I22">
         <v>0.9902523328917338</v>
       </c>
-      <c r="J22">
-        <v>0.2635562887396546</v>
-      </c>
-      <c r="K22">
-        <v>-1.334168969284273</v>
-      </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
@@ -1340,15 +1160,6 @@
       <c r="H23">
         <v>0.9598787783384797</v>
       </c>
-      <c r="I23">
-        <v>0.2253362183847423</v>
-      </c>
-      <c r="J23">
-        <v>-1.367299026220144</v>
-      </c>
-      <c r="K23">
-        <v>2.65071910388544</v>
-      </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
@@ -1416,9 +1227,6 @@
       <c r="J25">
         <v>-0.47088214461462</v>
       </c>
-      <c r="K25">
-        <v>0.4194340568517292</v>
-      </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
@@ -1448,12 +1256,6 @@
       <c r="I26">
         <v>-0.4596543554409019</v>
       </c>
-      <c r="J26">
-        <v>0.4340312843173362</v>
-      </c>
-      <c r="K26">
-        <v>-1.843996665437504</v>
-      </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
@@ -1480,15 +1282,6 @@
       <c r="H27">
         <v>-0.4693696443483915</v>
       </c>
-      <c r="I27">
-        <v>0.4193570889915004</v>
-      </c>
-      <c r="J27">
-        <v>-1.855493596591191</v>
-      </c>
-      <c r="K27">
-        <v>0.4883062772797765</v>
-      </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
@@ -1556,9 +1349,6 @@
       <c r="J29">
         <v>-0.07217877264919559</v>
       </c>
-      <c r="K29">
-        <v>5.437433166943523</v>
-      </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
@@ -1588,12 +1378,6 @@
       <c r="I30">
         <v>-0.1223492658140356</v>
       </c>
-      <c r="J30">
-        <v>5.388453503085588</v>
-      </c>
-      <c r="K30">
-        <v>0.423607095028068</v>
-      </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
@@ -1620,15 +1404,6 @@
       <c r="H31">
         <v>-0.1463095734416884</v>
       </c>
-      <c r="I31">
-        <v>5.36355559389261</v>
-      </c>
-      <c r="J31">
-        <v>0.3998793582694831</v>
-      </c>
-      <c r="K31">
-        <v>0.253830841841385</v>
-      </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
@@ -1696,9 +1471,6 @@
       <c r="J33">
         <v>0.2732273855070802</v>
       </c>
-      <c r="K33">
-        <v>0.8599182958754334</v>
-      </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
@@ -1728,12 +1500,6 @@
       <c r="I34">
         <v>0.1472178326497093</v>
       </c>
-      <c r="J34">
-        <v>0.9205791825923889</v>
-      </c>
-      <c r="K34">
-        <v>-0.5408299902042537</v>
-      </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
@@ -1760,15 +1526,6 @@
       <c r="H35">
         <v>0.1082404039994124</v>
       </c>
-      <c r="I35">
-        <v>0.8826528889272403</v>
-      </c>
-      <c r="J35">
-        <v>-0.5789279963257741</v>
-      </c>
-      <c r="K35">
-        <v>0.02137250751855296</v>
-      </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
@@ -1836,9 +1593,6 @@
       <c r="J37">
         <v>0.06210275191178732</v>
       </c>
-      <c r="K37">
-        <v>0.8203917886788428</v>
-      </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
@@ -1868,12 +1622,6 @@
       <c r="I38">
         <v>0.04277452672454191</v>
       </c>
-      <c r="J38">
-        <v>0.801519184373642</v>
-      </c>
-      <c r="K38">
-        <v>-0.3329149843404818</v>
-      </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
@@ -1899,12 +1647,6 @@
       </c>
       <c r="H39">
         <v>-0.01244006946398929</v>
-      </c>
-      <c r="I39">
-        <v>0.6963948374914991</v>
-      </c>
-      <c r="J39">
-        <v>-0.4128123635768226</v>
       </c>
     </row>
     <row r="40" spans="1:11">
